--- a/Testing Documentation (Test Scenario – Test Case – dll)/PRAKTIKUM.xlsx
+++ b/Testing Documentation (Test Scenario – Test Case – dll)/PRAKTIKUM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="123820"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows 10\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QE-MUH-FIQRAM-MAULANA\QE-MUH-FIQRAM-MAULANA\Testing Documentation (Test Scenario – Test Case – dll)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B59A4A3-4A92-41D1-87A1-4AC7C49AAA97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA7FFF8-C638-490B-95C9-8B43D69D750F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="2940" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="page 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="150">
   <si>
     <r>
       <rPr>
@@ -3346,12 +3346,6 @@
     <t>Masukan Kode</t>
   </si>
   <si>
-    <t>Captcha (tidak</t>
-  </si>
-  <si>
-    <t>diisi), kemudian</t>
-  </si>
-  <si>
     <t>Daftar</t>
   </si>
   <si>
@@ -3602,9 +3596,6 @@
     </r>
   </si>
   <si>
-    <t>sesuai), kemudian</t>
-  </si>
-  <si>
     <t>mengetikan</t>
   </si>
   <si>
@@ -3627,12 +3618,6 @@
   </si>
   <si>
     <t>penulisan),</t>
-  </si>
-  <si>
-    <t>Captcha,</t>
-  </si>
-  <si>
-    <t>tombol Daftar</t>
   </si>
   <si>
     <t>alamat Password</t>
@@ -9249,7 +9234,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -9258,7 +9253,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -9271,26 +9280,14 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -9304,32 +9301,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9668,8 +9653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59:I59"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43:I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9691,33 +9676,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="32.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
     </row>
     <row r="2" spans="1:17" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
@@ -9731,707 +9716,707 @@
       <c r="Q2" s="11"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
     </row>
     <row r="4" spans="1:17" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="21" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="35" t="s">
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="9" t="s">
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="9"/>
+      <c r="O4" s="13"/>
     </row>
     <row r="5" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="22" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
-      <c r="K5" s="22" t="s">
+      <c r="K5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="10"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="14"/>
       <c r="O5" s="11"/>
     </row>
     <row r="6" spans="1:17" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+      <c r="A6" s="23">
         <v>1</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
       <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16" t="s">
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="9" t="s">
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="9"/>
+      <c r="O6" s="13"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="29" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
       <c r="E7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12" t="s">
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="10"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="14"/>
       <c r="O7" s="11"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="10"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="14"/>
       <c r="O8" s="11"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
       <c r="E9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="10"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="14"/>
       <c r="O9" s="11"/>
     </row>
     <row r="10" spans="1:17" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="10"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="14"/>
       <c r="O10" s="11"/>
     </row>
     <row r="11" spans="1:17" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+      <c r="A11" s="23">
         <v>2</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
       <c r="E11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16" t="s">
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="9" t="s">
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O11" s="9"/>
+      <c r="O11" s="13"/>
     </row>
     <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="12" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
       <c r="E12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12" t="s">
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="10"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="14"/>
       <c r="O12" s="11"/>
     </row>
     <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="12" t="s">
+      <c r="A13" s="14"/>
+      <c r="B13" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="10"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="14"/>
       <c r="O13" s="11"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="12" t="s">
+      <c r="A14" s="14"/>
+      <c r="B14" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
       <c r="E14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="10"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="14"/>
       <c r="O14" s="11"/>
     </row>
     <row r="15" spans="1:17" ht="33.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="19" t="s">
+      <c r="A15" s="14"/>
+      <c r="B15" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
       <c r="E15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="10"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="14"/>
       <c r="O15" s="11"/>
     </row>
     <row r="16" spans="1:17" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
+      <c r="A16" s="23">
         <v>3</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
       <c r="E16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16" t="s">
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="9" t="s">
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O16" s="9"/>
+      <c r="O16" s="13"/>
     </row>
     <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="14"/>
+      <c r="B17" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
       <c r="E17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12" t="s">
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="10"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="14"/>
       <c r="O17" s="11"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="12" t="s">
+      <c r="A18" s="14"/>
+      <c r="B18" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="10"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="14"/>
       <c r="O18" s="11"/>
     </row>
     <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="12" t="s">
+      <c r="A19" s="14"/>
+      <c r="B19" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
       <c r="E19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="10"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="14"/>
       <c r="O19" s="11"/>
     </row>
     <row r="20" spans="1:17" ht="33.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="19" t="s">
+      <c r="A20" s="14"/>
+      <c r="B20" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
       <c r="E20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="10"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="14"/>
       <c r="O20" s="11"/>
     </row>
     <row r="21" spans="1:17" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
+      <c r="A21" s="23">
         <v>4</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
       <c r="E21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16" t="s">
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="9" t="s">
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O21" s="9"/>
+      <c r="O21" s="13"/>
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="12" t="s">
+      <c r="A22" s="14"/>
+      <c r="B22" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
       <c r="E22" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12" t="s">
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="10"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="14"/>
       <c r="O22" s="11"/>
     </row>
     <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="12" t="s">
+      <c r="A23" s="14"/>
+      <c r="B23" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="10"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="14"/>
       <c r="O23" s="11"/>
     </row>
     <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="12" t="s">
+      <c r="A24" s="14"/>
+      <c r="B24" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
       <c r="E24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="10"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="14"/>
       <c r="O24" s="11"/>
     </row>
     <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="12" t="s">
+      <c r="A25" s="14"/>
+      <c r="B25" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
       <c r="E25" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="10"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="14"/>
       <c r="O25" s="11"/>
     </row>
     <row r="26" spans="1:17" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="22" t="s">
+      <c r="A26" s="14"/>
+      <c r="B26" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="10"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="14"/>
       <c r="O26" s="11"/>
     </row>
     <row r="27" spans="1:17" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15">
+      <c r="A27" s="23">
         <v>5</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
       <c r="E27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="17" t="s">
+      <c r="F27" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="16" t="s">
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="9" t="s">
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O27" s="9"/>
+      <c r="O27" s="13"/>
     </row>
     <row r="28" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="12" t="s">
+      <c r="A28" s="14"/>
+      <c r="B28" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
       <c r="E28" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="10"/>
+      <c r="F28" s="14"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
-      <c r="K28" s="12" t="s">
+      <c r="K28" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="10"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="14"/>
       <c r="O28" s="11"/>
     </row>
     <row r="29" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="12" t="s">
+      <c r="A29" s="14"/>
+      <c r="B29" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
       <c r="E29" s="5"/>
-      <c r="F29" s="10"/>
+      <c r="F29" s="14"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="10"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="14"/>
       <c r="O29" s="11"/>
     </row>
     <row r="30" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="12" t="s">
+      <c r="A30" s="14"/>
+      <c r="B30" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
       <c r="E30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F30" s="10"/>
+      <c r="F30" s="14"/>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="10"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="14"/>
       <c r="O30" s="11"/>
     </row>
     <row r="31" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="22" t="s">
+      <c r="A31" s="14"/>
+      <c r="B31" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
       <c r="E31" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F31" s="10"/>
+      <c r="F31" s="14"/>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="10"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="14"/>
       <c r="O31" s="11"/>
     </row>
     <row r="32" spans="1:17" ht="32.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="24"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="24"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="28"/>
     </row>
     <row r="33" spans="1:17" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
       <c r="J33" s="11"/>
@@ -10444,721 +10429,721 @@
       <c r="Q33" s="11"/>
     </row>
     <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="26"/>
-      <c r="O34" s="26"/>
-      <c r="P34" s="26"/>
-      <c r="Q34" s="26"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="30"/>
     </row>
     <row r="35" spans="1:17" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="21" t="s">
+      <c r="C35" s="15"/>
+      <c r="D35" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="9" t="s">
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="16" t="s">
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="N35" s="16"/>
-      <c r="O35" s="9" t="s">
+      <c r="N35" s="15"/>
+      <c r="O35" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="P35" s="9"/>
+      <c r="P35" s="13"/>
     </row>
     <row r="36" spans="1:17" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
-      <c r="B36" s="22" t="s">
+      <c r="A36" s="14"/>
+      <c r="B36" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="22"/>
-      <c r="D36" s="10"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="14"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
-      <c r="J36" s="10"/>
+      <c r="J36" s="14"/>
       <c r="K36" s="11"/>
       <c r="L36" s="11"/>
-      <c r="M36" s="22" t="s">
+      <c r="M36" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="N36" s="22"/>
-      <c r="O36" s="10"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="14"/>
       <c r="P36" s="11"/>
     </row>
     <row r="37" spans="1:17" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="15">
+      <c r="A37" s="23">
         <v>1</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="30"/>
-      <c r="D37" s="16" t="s">
+      <c r="C37" s="24"/>
+      <c r="D37" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16" t="s">
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16" t="s">
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N37" s="16"/>
-      <c r="O37" s="9" t="s">
+      <c r="N37" s="15"/>
+      <c r="O37" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="P37" s="9"/>
+      <c r="P37" s="13"/>
     </row>
     <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
-      <c r="B38" s="29" t="s">
+      <c r="A38" s="14"/>
+      <c r="B38" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="29"/>
-      <c r="D38" s="12" t="s">
+      <c r="C38" s="19"/>
+      <c r="D38" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12" t="s">
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12" t="s">
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="N38" s="12"/>
-      <c r="O38" s="10"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="14"/>
       <c r="P38" s="11"/>
     </row>
     <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
-      <c r="B39" s="12" t="s">
+      <c r="A39" s="14"/>
+      <c r="B39" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="10"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="14"/>
       <c r="P39" s="11"/>
     </row>
     <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-      <c r="B40" s="12" t="s">
+      <c r="A40" s="14"/>
+      <c r="B40" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12" t="s">
+      <c r="C40" s="20"/>
+      <c r="D40" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12" t="s">
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="10"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="14"/>
       <c r="P40" s="11"/>
     </row>
     <row r="41" spans="1:17" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
-      <c r="B41" s="22" t="s">
+      <c r="A41" s="14"/>
+      <c r="B41" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22" t="s">
+      <c r="C41" s="18"/>
+      <c r="D41" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22" t="s">
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14"/>
-      <c r="O41" s="10"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="14"/>
       <c r="P41" s="11"/>
     </row>
     <row r="42" spans="1:17" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="15">
+      <c r="A42" s="23">
         <v>2</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16" t="s">
+      <c r="C42" s="15"/>
+      <c r="D42" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16" t="s">
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="K42" s="16"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="16" t="s">
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N42" s="16"/>
-      <c r="O42" s="9" t="s">
+      <c r="N42" s="15"/>
+      <c r="O42" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="P42" s="9"/>
+      <c r="P42" s="13"/>
     </row>
     <row r="43" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
-      <c r="B43" s="12" t="s">
+      <c r="A43" s="14"/>
+      <c r="B43" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12" t="s">
+      <c r="C43" s="20"/>
+      <c r="D43" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12" t="s">
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12" t="s">
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="N43" s="12"/>
-      <c r="O43" s="10"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="14"/>
       <c r="P43" s="11"/>
     </row>
     <row r="44" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
-      <c r="B44" s="12" t="s">
+      <c r="A44" s="14"/>
+      <c r="B44" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C44" s="12"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="13"/>
-      <c r="O44" s="10"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="14"/>
       <c r="P44" s="11"/>
     </row>
     <row r="45" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
-      <c r="B45" s="12" t="s">
+      <c r="A45" s="14"/>
+      <c r="B45" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12" t="s">
+      <c r="C45" s="20"/>
+      <c r="D45" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12" t="s">
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="13"/>
-      <c r="O45" s="10"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="21"/>
+      <c r="O45" s="14"/>
       <c r="P45" s="11"/>
     </row>
     <row r="46" spans="1:17" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="10"/>
-      <c r="B46" s="19" t="s">
+      <c r="A46" s="14"/>
+      <c r="B46" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="19"/>
-      <c r="D46" s="22" t="s">
+      <c r="C46" s="25"/>
+      <c r="D46" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="14"/>
-      <c r="N46" s="14"/>
-      <c r="O46" s="10"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="14"/>
       <c r="P46" s="11"/>
     </row>
     <row r="47" spans="1:17" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="15">
+      <c r="A47" s="23">
         <v>3</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16" t="s">
+      <c r="C47" s="15"/>
+      <c r="D47" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16" t="s">
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="K47" s="16"/>
-      <c r="L47" s="16"/>
-      <c r="M47" s="16" t="s">
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N47" s="16"/>
-      <c r="O47" s="9" t="s">
+      <c r="N47" s="15"/>
+      <c r="O47" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="P47" s="9"/>
+      <c r="P47" s="13"/>
     </row>
     <row r="48" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="10"/>
-      <c r="B48" s="12" t="s">
+      <c r="A48" s="14"/>
+      <c r="B48" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12" t="s">
+      <c r="C48" s="20"/>
+      <c r="D48" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12" t="s">
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
-      <c r="M48" s="12" t="s">
+      <c r="K48" s="20"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="N48" s="12"/>
-      <c r="O48" s="10"/>
+      <c r="N48" s="20"/>
+      <c r="O48" s="14"/>
       <c r="P48" s="11"/>
     </row>
     <row r="49" spans="1:17" ht="33.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="10"/>
-      <c r="B49" s="18" t="s">
+      <c r="A49" s="14"/>
+      <c r="B49" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18" t="s">
+      <c r="C49" s="31"/>
+      <c r="D49" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18" t="s">
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="K49" s="18"/>
-      <c r="L49" s="18"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="13"/>
-      <c r="O49" s="10"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="31"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="14"/>
       <c r="P49" s="11"/>
     </row>
     <row r="50" spans="1:17" ht="33.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="10"/>
-      <c r="B50" s="19" t="s">
+      <c r="A50" s="14"/>
+      <c r="B50" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C50" s="19"/>
-      <c r="D50" s="28">
+      <c r="C50" s="25"/>
+      <c r="D50" s="32">
         <v>12345</v>
       </c>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="14"/>
-      <c r="N50" s="14"/>
-      <c r="O50" s="10"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="14"/>
       <c r="P50" s="11"/>
     </row>
     <row r="51" spans="1:17" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="15">
+      <c r="A51" s="23">
         <v>4</v>
       </c>
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16" t="s">
+      <c r="C51" s="15"/>
+      <c r="D51" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16" t="s">
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="K51" s="16"/>
-      <c r="L51" s="16"/>
-      <c r="M51" s="16" t="s">
+      <c r="K51" s="15"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N51" s="16"/>
-      <c r="O51" s="9" t="s">
+      <c r="N51" s="15"/>
+      <c r="O51" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="P51" s="9"/>
+      <c r="P51" s="13"/>
     </row>
     <row r="52" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="10"/>
-      <c r="B52" s="12" t="s">
+      <c r="A52" s="14"/>
+      <c r="B52" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12" t="s">
+      <c r="C52" s="20"/>
+      <c r="D52" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12" t="s">
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12" t="s">
+      <c r="K52" s="20"/>
+      <c r="L52" s="20"/>
+      <c r="M52" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="N52" s="12"/>
-      <c r="O52" s="10"/>
+      <c r="N52" s="20"/>
+      <c r="O52" s="14"/>
       <c r="P52" s="11"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="10"/>
-      <c r="B53" s="12" t="s">
+      <c r="A53" s="14"/>
+      <c r="B53" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C53" s="12"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="13"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="13"/>
-      <c r="N53" s="13"/>
-      <c r="O53" s="10"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="21"/>
+      <c r="N53" s="21"/>
+      <c r="O53" s="14"/>
       <c r="P53" s="11"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="10"/>
-      <c r="B54" s="12" t="s">
+      <c r="A54" s="14"/>
+      <c r="B54" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12" t="s">
+      <c r="C54" s="20"/>
+      <c r="D54" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12" t="s">
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="K54" s="12"/>
-      <c r="L54" s="12"/>
-      <c r="M54" s="13"/>
-      <c r="N54" s="13"/>
-      <c r="O54" s="10"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="20"/>
+      <c r="M54" s="21"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="14"/>
       <c r="P54" s="11"/>
     </row>
     <row r="55" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="10"/>
-      <c r="B55" s="12" t="s">
+      <c r="A55" s="14"/>
+      <c r="B55" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12" t="s">
+      <c r="C55" s="20"/>
+      <c r="D55" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="12" t="s">
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="K55" s="12"/>
-      <c r="L55" s="12"/>
-      <c r="M55" s="13"/>
-      <c r="N55" s="13"/>
-      <c r="O55" s="10"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="20"/>
+      <c r="M55" s="21"/>
+      <c r="N55" s="21"/>
+      <c r="O55" s="14"/>
       <c r="P55" s="11"/>
     </row>
     <row r="56" spans="1:17" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="10"/>
-      <c r="B56" s="22" t="s">
+      <c r="A56" s="14"/>
+      <c r="B56" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C56" s="22"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="22" t="s">
+      <c r="C56" s="18"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="K56" s="22"/>
-      <c r="L56" s="22"/>
-      <c r="M56" s="14"/>
-      <c r="N56" s="14"/>
-      <c r="O56" s="10"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="22"/>
+      <c r="O56" s="14"/>
       <c r="P56" s="11"/>
     </row>
     <row r="57" spans="1:17" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="15">
+      <c r="A57" s="23">
         <v>5</v>
       </c>
-      <c r="B57" s="16" t="s">
+      <c r="B57" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16" t="s">
+      <c r="C57" s="15"/>
+      <c r="D57" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="17" t="s">
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="K57" s="17"/>
-      <c r="L57" s="17"/>
-      <c r="M57" s="16" t="s">
+      <c r="K57" s="26"/>
+      <c r="L57" s="26"/>
+      <c r="M57" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N57" s="16"/>
-      <c r="O57" s="9" t="s">
+      <c r="N57" s="15"/>
+      <c r="O57" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="P57" s="9"/>
+      <c r="P57" s="13"/>
     </row>
     <row r="58" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="10"/>
-      <c r="B58" s="12" t="s">
+      <c r="A58" s="14"/>
+      <c r="B58" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12" t="s">
+      <c r="C58" s="20"/>
+      <c r="D58" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="10"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="14"/>
       <c r="K58" s="11"/>
       <c r="L58" s="11"/>
-      <c r="M58" s="12" t="s">
+      <c r="M58" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="N58" s="12"/>
-      <c r="O58" s="10"/>
+      <c r="N58" s="20"/>
+      <c r="O58" s="14"/>
       <c r="P58" s="11"/>
     </row>
     <row r="59" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="10"/>
-      <c r="B59" s="12" t="s">
+      <c r="A59" s="14"/>
+      <c r="B59" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C59" s="12"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="10"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="14"/>
       <c r="K59" s="11"/>
       <c r="L59" s="11"/>
-      <c r="M59" s="13"/>
-      <c r="N59" s="13"/>
-      <c r="O59" s="10"/>
+      <c r="M59" s="21"/>
+      <c r="N59" s="21"/>
+      <c r="O59" s="14"/>
       <c r="P59" s="11"/>
     </row>
     <row r="60" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="10"/>
-      <c r="B60" s="12" t="s">
+      <c r="A60" s="14"/>
+      <c r="B60" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12" t="s">
+      <c r="C60" s="20"/>
+      <c r="D60" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="10"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="14"/>
       <c r="K60" s="11"/>
       <c r="L60" s="11"/>
-      <c r="M60" s="13"/>
-      <c r="N60" s="13"/>
-      <c r="O60" s="10"/>
+      <c r="M60" s="21"/>
+      <c r="N60" s="21"/>
+      <c r="O60" s="14"/>
       <c r="P60" s="11"/>
     </row>
     <row r="61" spans="1:17" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="10"/>
-      <c r="B61" s="22" t="s">
+      <c r="A61" s="14"/>
+      <c r="B61" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22" t="s">
+      <c r="C61" s="18"/>
+      <c r="D61" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="22"/>
-      <c r="I61" s="22"/>
-      <c r="J61" s="10"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="14"/>
       <c r="K61" s="11"/>
       <c r="L61" s="11"/>
-      <c r="M61" s="14"/>
-      <c r="N61" s="14"/>
-      <c r="O61" s="10"/>
+      <c r="M61" s="22"/>
+      <c r="N61" s="22"/>
+      <c r="O61" s="14"/>
       <c r="P61" s="11"/>
     </row>
     <row r="62" spans="1:17" ht="32.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="23" t="s">
+      <c r="A62" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="B62" s="23"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="23"/>
-      <c r="I62" s="24"/>
-      <c r="J62" s="24"/>
-      <c r="K62" s="24"/>
-      <c r="L62" s="24"/>
-      <c r="M62" s="24"/>
-      <c r="N62" s="24"/>
-      <c r="O62" s="24"/>
-      <c r="P62" s="24"/>
-      <c r="Q62" s="24"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="27"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="28"/>
+      <c r="K62" s="28"/>
+      <c r="L62" s="28"/>
+      <c r="M62" s="28"/>
+      <c r="N62" s="28"/>
+      <c r="O62" s="28"/>
+      <c r="P62" s="28"/>
+      <c r="Q62" s="28"/>
     </row>
     <row r="63" spans="1:17" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="25"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="25"/>
-      <c r="F63" s="25"/>
-      <c r="G63" s="25"/>
-      <c r="H63" s="25"/>
-      <c r="I63" s="25"/>
+      <c r="A63" s="29"/>
+      <c r="B63" s="29"/>
+      <c r="C63" s="29"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="29"/>
       <c r="J63" s="11"/>
       <c r="K63" s="11"/>
       <c r="L63" s="11"/>
@@ -11169,2048 +11154,1996 @@
       <c r="Q63" s="11"/>
     </row>
     <row r="64" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="26" t="s">
+      <c r="A64" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="B64" s="26"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="26"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="26"/>
-      <c r="G64" s="26"/>
-      <c r="H64" s="26"/>
-      <c r="I64" s="26"/>
-      <c r="J64" s="26"/>
-      <c r="K64" s="26"/>
-      <c r="L64" s="26"/>
-      <c r="M64" s="26"/>
-      <c r="N64" s="26"/>
-      <c r="O64" s="26"/>
-      <c r="P64" s="26"/>
-      <c r="Q64" s="26"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="30"/>
+      <c r="J64" s="30"/>
+      <c r="K64" s="30"/>
+      <c r="L64" s="30"/>
+      <c r="M64" s="30"/>
+      <c r="N64" s="30"/>
+      <c r="O64" s="30"/>
+      <c r="P64" s="30"/>
+      <c r="Q64" s="30"/>
     </row>
     <row r="65" spans="1:15" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="9" t="s">
+      <c r="A65" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B65" s="16" t="s">
+      <c r="B65" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C65" s="16"/>
-      <c r="D65" s="21" t="s">
+      <c r="C65" s="15"/>
+      <c r="D65" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E65" s="21"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="21"/>
-      <c r="H65" s="9" t="s">
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I65" s="9"/>
-      <c r="J65" s="9"/>
-      <c r="K65" s="16" t="s">
+      <c r="I65" s="13"/>
+      <c r="J65" s="13"/>
+      <c r="K65" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="L65" s="16"/>
-      <c r="M65" s="16"/>
-      <c r="N65" s="9" t="s">
+      <c r="L65" s="15"/>
+      <c r="M65" s="15"/>
+      <c r="N65" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="O65" s="9"/>
+      <c r="O65" s="13"/>
     </row>
     <row r="66" spans="1:15" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="10"/>
-      <c r="B66" s="22" t="s">
+      <c r="A66" s="14"/>
+      <c r="B66" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C66" s="22"/>
-      <c r="D66" s="10"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="14"/>
       <c r="E66" s="11"/>
       <c r="F66" s="11"/>
       <c r="G66" s="11"/>
-      <c r="H66" s="10"/>
+      <c r="H66" s="14"/>
       <c r="I66" s="11"/>
       <c r="J66" s="11"/>
-      <c r="K66" s="22" t="s">
+      <c r="K66" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="L66" s="22"/>
-      <c r="M66" s="22"/>
-      <c r="N66" s="10"/>
+      <c r="L66" s="18"/>
+      <c r="M66" s="18"/>
+      <c r="N66" s="14"/>
       <c r="O66" s="11"/>
     </row>
     <row r="67" spans="1:15" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="15">
+      <c r="A67" s="23">
         <v>1</v>
       </c>
-      <c r="B67" s="16" t="s">
+      <c r="B67" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16" t="s">
+      <c r="C67" s="15"/>
+      <c r="D67" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="E67" s="16"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="16"/>
-      <c r="H67" s="16" t="s">
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I67" s="16"/>
-      <c r="J67" s="16"/>
-      <c r="K67" s="16" t="s">
+      <c r="I67" s="15"/>
+      <c r="J67" s="15"/>
+      <c r="K67" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="L67" s="16"/>
-      <c r="M67" s="16"/>
-      <c r="N67" s="9" t="s">
+      <c r="L67" s="15"/>
+      <c r="M67" s="15"/>
+      <c r="N67" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O67" s="9"/>
+      <c r="O67" s="13"/>
     </row>
     <row r="68" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="10"/>
-      <c r="B68" s="12" t="s">
+      <c r="A68" s="14"/>
+      <c r="B68" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12" t="s">
+      <c r="C68" s="20"/>
+      <c r="D68" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="12" t="s">
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I68" s="12"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="12" t="s">
+      <c r="I68" s="20"/>
+      <c r="J68" s="20"/>
+      <c r="K68" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="L68" s="12"/>
-      <c r="M68" s="12"/>
-      <c r="N68" s="10"/>
+      <c r="L68" s="20"/>
+      <c r="M68" s="20"/>
+      <c r="N68" s="14"/>
       <c r="O68" s="11"/>
     </row>
     <row r="69" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="10"/>
-      <c r="B69" s="12" t="s">
+      <c r="A69" s="14"/>
+      <c r="B69" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12" t="s">
+      <c r="C69" s="20"/>
+      <c r="D69" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="13"/>
-      <c r="I69" s="13"/>
-      <c r="J69" s="13"/>
-      <c r="K69" s="13"/>
-      <c r="L69" s="13"/>
-      <c r="M69" s="13"/>
-      <c r="N69" s="10"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="21"/>
+      <c r="L69" s="21"/>
+      <c r="M69" s="21"/>
+      <c r="N69" s="14"/>
       <c r="O69" s="11"/>
     </row>
     <row r="70" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="10"/>
-      <c r="B70" s="12" t="s">
+      <c r="A70" s="14"/>
+      <c r="B70" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12" t="s">
+      <c r="C70" s="20"/>
+      <c r="D70" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="12" t="s">
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="I70" s="12"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="13"/>
-      <c r="L70" s="13"/>
-      <c r="M70" s="13"/>
-      <c r="N70" s="10"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="20"/>
+      <c r="K70" s="21"/>
+      <c r="L70" s="21"/>
+      <c r="M70" s="21"/>
+      <c r="N70" s="14"/>
       <c r="O70" s="11"/>
     </row>
     <row r="71" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="10"/>
-      <c r="B71" s="12" t="s">
+      <c r="A71" s="14"/>
+      <c r="B71" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12" t="s">
+      <c r="C71" s="20"/>
+      <c r="D71" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="13"/>
-      <c r="I71" s="13"/>
-      <c r="J71" s="13"/>
-      <c r="K71" s="13"/>
-      <c r="L71" s="13"/>
-      <c r="M71" s="13"/>
-      <c r="N71" s="10"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="20"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="21"/>
+      <c r="K71" s="21"/>
+      <c r="L71" s="21"/>
+      <c r="M71" s="21"/>
+      <c r="N71" s="14"/>
       <c r="O71" s="11"/>
     </row>
     <row r="72" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="10"/>
-      <c r="B72" s="12" t="s">
+      <c r="A72" s="14"/>
+      <c r="B72" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C72" s="12"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="13"/>
-      <c r="H72" s="13"/>
-      <c r="I72" s="13"/>
-      <c r="J72" s="13"/>
-      <c r="K72" s="13"/>
-      <c r="L72" s="13"/>
-      <c r="M72" s="13"/>
-      <c r="N72" s="10"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="21"/>
+      <c r="J72" s="21"/>
+      <c r="K72" s="21"/>
+      <c r="L72" s="21"/>
+      <c r="M72" s="21"/>
+      <c r="N72" s="14"/>
       <c r="O72" s="11"/>
     </row>
     <row r="73" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="10"/>
-      <c r="B73" s="12" t="s">
+      <c r="A73" s="14"/>
+      <c r="B73" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C73" s="12"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="13"/>
-      <c r="J73" s="13"/>
-      <c r="K73" s="13"/>
-      <c r="L73" s="13"/>
-      <c r="M73" s="13"/>
-      <c r="N73" s="10"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="21"/>
+      <c r="J73" s="21"/>
+      <c r="K73" s="21"/>
+      <c r="L73" s="21"/>
+      <c r="M73" s="21"/>
+      <c r="N73" s="14"/>
       <c r="O73" s="11"/>
     </row>
     <row r="74" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="10"/>
-      <c r="B74" s="12" t="s">
+      <c r="A74" s="14"/>
+      <c r="B74" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C74" s="12"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13"/>
-      <c r="H74" s="13"/>
-      <c r="I74" s="13"/>
-      <c r="J74" s="13"/>
-      <c r="K74" s="13"/>
-      <c r="L74" s="13"/>
-      <c r="M74" s="13"/>
-      <c r="N74" s="10"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="21"/>
+      <c r="I74" s="21"/>
+      <c r="J74" s="21"/>
+      <c r="K74" s="21"/>
+      <c r="L74" s="21"/>
+      <c r="M74" s="21"/>
+      <c r="N74" s="14"/>
       <c r="O74" s="11"/>
     </row>
     <row r="75" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="10"/>
-      <c r="B75" s="12" t="s">
+      <c r="A75" s="14"/>
+      <c r="B75" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="C75" s="12"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="13"/>
-      <c r="H75" s="13"/>
-      <c r="I75" s="13"/>
-      <c r="J75" s="13"/>
-      <c r="K75" s="13"/>
-      <c r="L75" s="13"/>
-      <c r="M75" s="13"/>
-      <c r="N75" s="10"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="21"/>
+      <c r="J75" s="21"/>
+      <c r="K75" s="21"/>
+      <c r="L75" s="21"/>
+      <c r="M75" s="21"/>
+      <c r="N75" s="14"/>
       <c r="O75" s="11"/>
     </row>
     <row r="76" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="10"/>
-      <c r="B76" s="12" t="s">
+      <c r="A76" s="14"/>
+      <c r="B76" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="C76" s="12"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="13"/>
-      <c r="H76" s="13"/>
-      <c r="I76" s="13"/>
-      <c r="J76" s="13"/>
-      <c r="K76" s="13"/>
-      <c r="L76" s="13"/>
-      <c r="M76" s="13"/>
-      <c r="N76" s="10"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="21"/>
+      <c r="I76" s="21"/>
+      <c r="J76" s="21"/>
+      <c r="K76" s="21"/>
+      <c r="L76" s="21"/>
+      <c r="M76" s="21"/>
+      <c r="N76" s="14"/>
       <c r="O76" s="11"/>
     </row>
     <row r="77" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="10"/>
-      <c r="B77" s="12" t="s">
+      <c r="A77" s="14"/>
+      <c r="B77" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="C77" s="12"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="13"/>
-      <c r="H77" s="13"/>
-      <c r="I77" s="13"/>
-      <c r="J77" s="13"/>
-      <c r="K77" s="13"/>
-      <c r="L77" s="13"/>
-      <c r="M77" s="13"/>
-      <c r="N77" s="10"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="21"/>
+      <c r="I77" s="21"/>
+      <c r="J77" s="21"/>
+      <c r="K77" s="21"/>
+      <c r="L77" s="21"/>
+      <c r="M77" s="21"/>
+      <c r="N77" s="14"/>
       <c r="O77" s="11"/>
     </row>
     <row r="78" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="10"/>
-      <c r="B78" s="12" t="s">
+      <c r="A78" s="14"/>
+      <c r="B78" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="C78" s="12"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="13"/>
-      <c r="H78" s="13"/>
-      <c r="I78" s="13"/>
-      <c r="J78" s="13"/>
-      <c r="K78" s="13"/>
-      <c r="L78" s="13"/>
-      <c r="M78" s="13"/>
-      <c r="N78" s="10"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="21"/>
+      <c r="I78" s="21"/>
+      <c r="J78" s="21"/>
+      <c r="K78" s="21"/>
+      <c r="L78" s="21"/>
+      <c r="M78" s="21"/>
+      <c r="N78" s="14"/>
       <c r="O78" s="11"/>
     </row>
     <row r="79" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="10"/>
-      <c r="B79" s="12" t="s">
+      <c r="A79" s="14"/>
+      <c r="B79" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="C79" s="12"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="13"/>
-      <c r="F79" s="13"/>
-      <c r="G79" s="13"/>
-      <c r="H79" s="13"/>
-      <c r="I79" s="13"/>
-      <c r="J79" s="13"/>
-      <c r="K79" s="13"/>
-      <c r="L79" s="13"/>
-      <c r="M79" s="13"/>
-      <c r="N79" s="10"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="21"/>
+      <c r="I79" s="21"/>
+      <c r="J79" s="21"/>
+      <c r="K79" s="21"/>
+      <c r="L79" s="21"/>
+      <c r="M79" s="21"/>
+      <c r="N79" s="14"/>
       <c r="O79" s="11"/>
     </row>
     <row r="80" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="10"/>
-      <c r="B80" s="12" t="s">
+      <c r="A80" s="14"/>
+      <c r="B80" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="C80" s="12"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="13"/>
-      <c r="F80" s="13"/>
-      <c r="G80" s="13"/>
-      <c r="H80" s="13"/>
-      <c r="I80" s="13"/>
-      <c r="J80" s="13"/>
-      <c r="K80" s="13"/>
-      <c r="L80" s="13"/>
-      <c r="M80" s="13"/>
-      <c r="N80" s="10"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="21"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="21"/>
+      <c r="I80" s="21"/>
+      <c r="J80" s="21"/>
+      <c r="K80" s="21"/>
+      <c r="L80" s="21"/>
+      <c r="M80" s="21"/>
+      <c r="N80" s="14"/>
       <c r="O80" s="11"/>
     </row>
     <row r="81" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="10"/>
-      <c r="B81" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C81" s="12"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="13"/>
-      <c r="F81" s="13"/>
-      <c r="G81" s="13"/>
-      <c r="H81" s="13"/>
-      <c r="I81" s="13"/>
-      <c r="J81" s="13"/>
-      <c r="K81" s="13"/>
-      <c r="L81" s="13"/>
-      <c r="M81" s="13"/>
-      <c r="N81" s="10"/>
+      <c r="A81" s="14"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="21"/>
+      <c r="I81" s="21"/>
+      <c r="J81" s="21"/>
+      <c r="K81" s="21"/>
+      <c r="L81" s="21"/>
+      <c r="M81" s="21"/>
+      <c r="N81" s="14"/>
       <c r="O81" s="11"/>
     </row>
-    <row r="82" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="10"/>
-      <c r="B82" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C82" s="12"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="13"/>
-      <c r="F82" s="13"/>
-      <c r="G82" s="13"/>
-      <c r="H82" s="13"/>
-      <c r="I82" s="13"/>
-      <c r="J82" s="13"/>
-      <c r="K82" s="13"/>
-      <c r="L82" s="13"/>
-      <c r="M82" s="13"/>
-      <c r="N82" s="10"/>
+    <row r="82" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="14"/>
+      <c r="B82" s="20"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="21"/>
+      <c r="H82" s="21"/>
+      <c r="I82" s="21"/>
+      <c r="J82" s="21"/>
+      <c r="K82" s="21"/>
+      <c r="L82" s="21"/>
+      <c r="M82" s="21"/>
+      <c r="N82" s="14"/>
       <c r="O82" s="11"/>
     </row>
-    <row r="83" spans="1:15" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="10"/>
-      <c r="B83" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C83" s="22"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c r="G83" s="14"/>
-      <c r="H83" s="14"/>
-      <c r="I83" s="14"/>
-      <c r="J83" s="14"/>
-      <c r="K83" s="14"/>
-      <c r="L83" s="14"/>
-      <c r="M83" s="14"/>
-      <c r="N83" s="10"/>
+    <row r="83" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="14"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="22"/>
+      <c r="I83" s="22"/>
+      <c r="J83" s="22"/>
+      <c r="K83" s="22"/>
+      <c r="L83" s="22"/>
+      <c r="M83" s="22"/>
+      <c r="N83" s="14"/>
       <c r="O83" s="11"/>
     </row>
     <row r="84" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C84" s="13"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="14"/>
+      <c r="J84" s="14"/>
+      <c r="K84" s="14"/>
+      <c r="L84" s="14"/>
+      <c r="M84" s="14"/>
+      <c r="N84" s="14"/>
+      <c r="O84" s="14"/>
+    </row>
+    <row r="85" spans="1:15" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="23">
+        <v>2</v>
+      </c>
+      <c r="B85" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C85" s="15"/>
+      <c r="D85" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I85" s="15"/>
+      <c r="J85" s="15"/>
+      <c r="K85" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L85" s="15"/>
+      <c r="M85" s="15"/>
+      <c r="N85" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="O85" s="13"/>
+    </row>
+    <row r="86" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="14"/>
+      <c r="B86" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="C84" s="9"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="10"/>
-      <c r="G84" s="10"/>
-      <c r="H84" s="10"/>
-      <c r="I84" s="10"/>
-      <c r="J84" s="10"/>
-      <c r="K84" s="10"/>
-      <c r="L84" s="10"/>
-      <c r="M84" s="10"/>
-      <c r="N84" s="10"/>
-      <c r="O84" s="10"/>
-    </row>
-    <row r="85" spans="1:15" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="15">
-        <v>2</v>
-      </c>
-      <c r="B85" s="16" t="s">
+      <c r="C86" s="20"/>
+      <c r="D86" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="C85" s="16"/>
-      <c r="D85" s="16" t="s">
+      <c r="E86" s="20"/>
+      <c r="F86" s="20"/>
+      <c r="G86" s="20"/>
+      <c r="H86" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I86" s="20"/>
+      <c r="J86" s="20"/>
+      <c r="K86" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="L86" s="20"/>
+      <c r="M86" s="20"/>
+      <c r="N86" s="14"/>
+      <c r="O86" s="11"/>
+    </row>
+    <row r="87" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="14"/>
+      <c r="B87" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C87" s="20"/>
+      <c r="D87" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E87" s="20"/>
+      <c r="F87" s="20"/>
+      <c r="G87" s="20"/>
+      <c r="H87" s="21"/>
+      <c r="I87" s="21"/>
+      <c r="J87" s="21"/>
+      <c r="K87" s="21"/>
+      <c r="L87" s="21"/>
+      <c r="M87" s="21"/>
+      <c r="N87" s="14"/>
+      <c r="O87" s="11"/>
+    </row>
+    <row r="88" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="14"/>
+      <c r="B88" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C88" s="20"/>
+      <c r="D88" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E88" s="20"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="20"/>
+      <c r="H88" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="I88" s="20"/>
+      <c r="J88" s="20"/>
+      <c r="K88" s="21"/>
+      <c r="L88" s="21"/>
+      <c r="M88" s="21"/>
+      <c r="N88" s="14"/>
+      <c r="O88" s="11"/>
+    </row>
+    <row r="89" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="14"/>
+      <c r="B89" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C89" s="20"/>
+      <c r="D89" s="21"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="21"/>
+      <c r="H89" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="I89" s="20"/>
+      <c r="J89" s="20"/>
+      <c r="K89" s="21"/>
+      <c r="L89" s="21"/>
+      <c r="M89" s="21"/>
+      <c r="N89" s="14"/>
+      <c r="O89" s="11"/>
+    </row>
+    <row r="90" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="14"/>
+      <c r="B90" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C90" s="20"/>
+      <c r="D90" s="21"/>
+      <c r="E90" s="21"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="21"/>
+      <c r="H90" s="21"/>
+      <c r="I90" s="21"/>
+      <c r="J90" s="21"/>
+      <c r="K90" s="21"/>
+      <c r="L90" s="21"/>
+      <c r="M90" s="21"/>
+      <c r="N90" s="14"/>
+      <c r="O90" s="11"/>
+    </row>
+    <row r="91" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="14"/>
+      <c r="B91" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C91" s="20"/>
+      <c r="D91" s="21"/>
+      <c r="E91" s="21"/>
+      <c r="F91" s="21"/>
+      <c r="G91" s="21"/>
+      <c r="H91" s="21"/>
+      <c r="I91" s="21"/>
+      <c r="J91" s="21"/>
+      <c r="K91" s="21"/>
+      <c r="L91" s="21"/>
+      <c r="M91" s="21"/>
+      <c r="N91" s="14"/>
+      <c r="O91" s="11"/>
+    </row>
+    <row r="92" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="14"/>
+      <c r="B92" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C92" s="20"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="21"/>
+      <c r="H92" s="21"/>
+      <c r="I92" s="21"/>
+      <c r="J92" s="21"/>
+      <c r="K92" s="21"/>
+      <c r="L92" s="21"/>
+      <c r="M92" s="21"/>
+      <c r="N92" s="14"/>
+      <c r="O92" s="11"/>
+    </row>
+    <row r="93" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="14"/>
+      <c r="B93" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C93" s="20"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="21"/>
+      <c r="G93" s="21"/>
+      <c r="H93" s="21"/>
+      <c r="I93" s="21"/>
+      <c r="J93" s="21"/>
+      <c r="K93" s="21"/>
+      <c r="L93" s="21"/>
+      <c r="M93" s="21"/>
+      <c r="N93" s="14"/>
+      <c r="O93" s="11"/>
+    </row>
+    <row r="94" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="14"/>
+      <c r="B94" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C94" s="20"/>
+      <c r="D94" s="21"/>
+      <c r="E94" s="21"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="21"/>
+      <c r="H94" s="21"/>
+      <c r="I94" s="21"/>
+      <c r="J94" s="21"/>
+      <c r="K94" s="21"/>
+      <c r="L94" s="21"/>
+      <c r="M94" s="21"/>
+      <c r="N94" s="14"/>
+      <c r="O94" s="11"/>
+    </row>
+    <row r="95" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="14"/>
+      <c r="D95" s="21"/>
+      <c r="E95" s="21"/>
+      <c r="F95" s="21"/>
+      <c r="G95" s="21"/>
+      <c r="H95" s="21"/>
+      <c r="I95" s="21"/>
+      <c r="J95" s="21"/>
+      <c r="K95" s="21"/>
+      <c r="L95" s="21"/>
+      <c r="M95" s="21"/>
+      <c r="N95" s="14"/>
+      <c r="O95" s="11"/>
+    </row>
+    <row r="96" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="14"/>
+      <c r="D96" s="21"/>
+      <c r="E96" s="21"/>
+      <c r="F96" s="21"/>
+      <c r="G96" s="21"/>
+      <c r="H96" s="21"/>
+      <c r="I96" s="21"/>
+      <c r="J96" s="21"/>
+      <c r="K96" s="21"/>
+      <c r="L96" s="21"/>
+      <c r="M96" s="21"/>
+      <c r="N96" s="14"/>
+      <c r="O96" s="11"/>
+    </row>
+    <row r="97" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="14"/>
+      <c r="D97" s="21"/>
+      <c r="E97" s="21"/>
+      <c r="F97" s="21"/>
+      <c r="G97" s="21"/>
+      <c r="H97" s="21"/>
+      <c r="I97" s="21"/>
+      <c r="J97" s="21"/>
+      <c r="K97" s="21"/>
+      <c r="L97" s="21"/>
+      <c r="M97" s="21"/>
+      <c r="N97" s="14"/>
+      <c r="O97" s="11"/>
+    </row>
+    <row r="98" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="14"/>
+      <c r="D98" s="21"/>
+      <c r="E98" s="21"/>
+      <c r="F98" s="21"/>
+      <c r="G98" s="21"/>
+      <c r="H98" s="21"/>
+      <c r="I98" s="21"/>
+      <c r="J98" s="21"/>
+      <c r="K98" s="21"/>
+      <c r="L98" s="21"/>
+      <c r="M98" s="21"/>
+      <c r="N98" s="14"/>
+      <c r="O98" s="11"/>
+    </row>
+    <row r="99" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="14"/>
+      <c r="B99" s="20"/>
+      <c r="C99" s="20"/>
+      <c r="D99" s="21"/>
+      <c r="E99" s="21"/>
+      <c r="F99" s="21"/>
+      <c r="G99" s="21"/>
+      <c r="H99" s="21"/>
+      <c r="I99" s="21"/>
+      <c r="J99" s="21"/>
+      <c r="K99" s="21"/>
+      <c r="L99" s="21"/>
+      <c r="M99" s="21"/>
+      <c r="N99" s="14"/>
+      <c r="O99" s="11"/>
+    </row>
+    <row r="100" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="14"/>
+      <c r="B100" s="20"/>
+      <c r="C100" s="20"/>
+      <c r="D100" s="21"/>
+      <c r="E100" s="21"/>
+      <c r="F100" s="21"/>
+      <c r="G100" s="21"/>
+      <c r="H100" s="21"/>
+      <c r="I100" s="21"/>
+      <c r="J100" s="21"/>
+      <c r="K100" s="21"/>
+      <c r="L100" s="21"/>
+      <c r="M100" s="21"/>
+      <c r="N100" s="14"/>
+      <c r="O100" s="11"/>
+    </row>
+    <row r="101" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="14"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="20"/>
+      <c r="D101" s="21"/>
+      <c r="E101" s="21"/>
+      <c r="F101" s="21"/>
+      <c r="G101" s="21"/>
+      <c r="H101" s="21"/>
+      <c r="I101" s="21"/>
+      <c r="J101" s="21"/>
+      <c r="K101" s="21"/>
+      <c r="L101" s="21"/>
+      <c r="M101" s="21"/>
+      <c r="N101" s="14"/>
+      <c r="O101" s="11"/>
+    </row>
+    <row r="102" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="14"/>
+      <c r="B102" s="20"/>
+      <c r="C102" s="20"/>
+      <c r="D102" s="21"/>
+      <c r="E102" s="21"/>
+      <c r="F102" s="21"/>
+      <c r="G102" s="21"/>
+      <c r="H102" s="21"/>
+      <c r="I102" s="21"/>
+      <c r="J102" s="21"/>
+      <c r="K102" s="21"/>
+      <c r="L102" s="21"/>
+      <c r="M102" s="21"/>
+      <c r="N102" s="14"/>
+      <c r="O102" s="11"/>
+    </row>
+    <row r="103" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="14"/>
+      <c r="B103" s="18"/>
+      <c r="C103" s="18"/>
+      <c r="D103" s="22"/>
+      <c r="E103" s="22"/>
+      <c r="F103" s="22"/>
+      <c r="G103" s="22"/>
+      <c r="H103" s="22"/>
+      <c r="I103" s="22"/>
+      <c r="J103" s="22"/>
+      <c r="K103" s="22"/>
+      <c r="L103" s="22"/>
+      <c r="M103" s="22"/>
+      <c r="N103" s="14"/>
+      <c r="O103" s="11"/>
+    </row>
+    <row r="104" spans="1:15" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="23">
+        <v>3</v>
+      </c>
+      <c r="B104" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C104" s="15"/>
+      <c r="D104" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="E85" s="16"/>
-      <c r="F85" s="16"/>
-      <c r="G85" s="16"/>
-      <c r="H85" s="16" t="s">
+      <c r="E104" s="15"/>
+      <c r="F104" s="15"/>
+      <c r="G104" s="15"/>
+      <c r="H104" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I85" s="16"/>
-      <c r="J85" s="16"/>
-      <c r="K85" s="16" t="s">
+      <c r="I104" s="15"/>
+      <c r="J104" s="15"/>
+      <c r="K104" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="L85" s="16"/>
-      <c r="M85" s="16"/>
-      <c r="N85" s="9" t="s">
+      <c r="L104" s="15"/>
+      <c r="M104" s="15"/>
+      <c r="N104" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O85" s="9"/>
-    </row>
-    <row r="86" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="10"/>
-      <c r="B86" s="12" t="s">
+      <c r="O104" s="13"/>
+    </row>
+    <row r="105" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="14"/>
+      <c r="B105" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C105" s="20"/>
+      <c r="D105" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E105" s="20"/>
+      <c r="F105" s="20"/>
+      <c r="G105" s="20"/>
+      <c r="H105" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I105" s="20"/>
+      <c r="J105" s="20"/>
+      <c r="K105" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="L105" s="20"/>
+      <c r="M105" s="20"/>
+      <c r="N105" s="14"/>
+      <c r="O105" s="11"/>
+    </row>
+    <row r="106" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="14"/>
+      <c r="B106" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="C86" s="12"/>
-      <c r="D86" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="E86" s="12"/>
-      <c r="F86" s="12"/>
-      <c r="G86" s="12"/>
-      <c r="H86" s="12" t="s">
+      <c r="C106" s="20"/>
+      <c r="D106" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="E106" s="20"/>
+      <c r="F106" s="20"/>
+      <c r="G106" s="20"/>
+      <c r="H106" s="21"/>
+      <c r="I106" s="21"/>
+      <c r="J106" s="21"/>
+      <c r="K106" s="21"/>
+      <c r="L106" s="21"/>
+      <c r="M106" s="21"/>
+      <c r="N106" s="14"/>
+      <c r="O106" s="11"/>
+    </row>
+    <row r="107" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="14"/>
+      <c r="B107" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C107" s="20"/>
+      <c r="D107" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E107" s="20"/>
+      <c r="F107" s="20"/>
+      <c r="G107" s="20"/>
+      <c r="H107" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="I107" s="20"/>
+      <c r="J107" s="20"/>
+      <c r="K107" s="21"/>
+      <c r="L107" s="21"/>
+      <c r="M107" s="21"/>
+      <c r="N107" s="14"/>
+      <c r="O107" s="11"/>
+    </row>
+    <row r="108" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="14"/>
+      <c r="B108" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C108" s="20"/>
+      <c r="D108" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E108" s="20"/>
+      <c r="F108" s="20"/>
+      <c r="G108" s="20"/>
+      <c r="H108" s="21"/>
+      <c r="I108" s="21"/>
+      <c r="J108" s="21"/>
+      <c r="K108" s="21"/>
+      <c r="L108" s="21"/>
+      <c r="M108" s="21"/>
+      <c r="N108" s="14"/>
+      <c r="O108" s="11"/>
+    </row>
+    <row r="109" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="14"/>
+      <c r="B109" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C109" s="20"/>
+      <c r="D109" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E109" s="20"/>
+      <c r="F109" s="20"/>
+      <c r="G109" s="20"/>
+      <c r="H109" s="21"/>
+      <c r="I109" s="21"/>
+      <c r="J109" s="21"/>
+      <c r="K109" s="21"/>
+      <c r="L109" s="21"/>
+      <c r="M109" s="21"/>
+      <c r="N109" s="14"/>
+      <c r="O109" s="11"/>
+    </row>
+    <row r="110" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="14"/>
+      <c r="B110" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C110" s="20"/>
+      <c r="D110" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E110" s="20"/>
+      <c r="F110" s="20"/>
+      <c r="G110" s="20"/>
+      <c r="H110" s="21"/>
+      <c r="I110" s="21"/>
+      <c r="J110" s="21"/>
+      <c r="K110" s="21"/>
+      <c r="L110" s="21"/>
+      <c r="M110" s="21"/>
+      <c r="N110" s="14"/>
+      <c r="O110" s="11"/>
+    </row>
+    <row r="111" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="14"/>
+      <c r="B111" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C111" s="20"/>
+      <c r="D111" s="21"/>
+      <c r="E111" s="21"/>
+      <c r="F111" s="21"/>
+      <c r="G111" s="21"/>
+      <c r="H111" s="21"/>
+      <c r="I111" s="21"/>
+      <c r="J111" s="21"/>
+      <c r="K111" s="21"/>
+      <c r="L111" s="21"/>
+      <c r="M111" s="21"/>
+      <c r="N111" s="14"/>
+      <c r="O111" s="11"/>
+    </row>
+    <row r="112" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="14"/>
+      <c r="B112" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C112" s="20"/>
+      <c r="D112" s="21"/>
+      <c r="E112" s="21"/>
+      <c r="F112" s="21"/>
+      <c r="G112" s="21"/>
+      <c r="H112" s="21"/>
+      <c r="I112" s="21"/>
+      <c r="J112" s="21"/>
+      <c r="K112" s="21"/>
+      <c r="L112" s="21"/>
+      <c r="M112" s="21"/>
+      <c r="N112" s="14"/>
+      <c r="O112" s="11"/>
+    </row>
+    <row r="113" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="14"/>
+      <c r="B113" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C113" s="20"/>
+      <c r="D113" s="21"/>
+      <c r="E113" s="21"/>
+      <c r="F113" s="21"/>
+      <c r="G113" s="21"/>
+      <c r="H113" s="21"/>
+      <c r="I113" s="21"/>
+      <c r="J113" s="21"/>
+      <c r="K113" s="21"/>
+      <c r="L113" s="21"/>
+      <c r="M113" s="21"/>
+      <c r="N113" s="14"/>
+      <c r="O113" s="11"/>
+    </row>
+    <row r="114" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="14"/>
+      <c r="B114" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C114" s="20"/>
+      <c r="D114" s="21"/>
+      <c r="E114" s="21"/>
+      <c r="F114" s="21"/>
+      <c r="G114" s="21"/>
+      <c r="H114" s="21"/>
+      <c r="I114" s="21"/>
+      <c r="J114" s="21"/>
+      <c r="K114" s="21"/>
+      <c r="L114" s="21"/>
+      <c r="M114" s="21"/>
+      <c r="N114" s="14"/>
+      <c r="O114" s="11"/>
+    </row>
+    <row r="115" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="14"/>
+      <c r="B115" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C115" s="20"/>
+      <c r="D115" s="21"/>
+      <c r="E115" s="21"/>
+      <c r="F115" s="21"/>
+      <c r="G115" s="21"/>
+      <c r="H115" s="21"/>
+      <c r="I115" s="21"/>
+      <c r="J115" s="21"/>
+      <c r="K115" s="21"/>
+      <c r="L115" s="21"/>
+      <c r="M115" s="21"/>
+      <c r="N115" s="14"/>
+      <c r="O115" s="11"/>
+    </row>
+    <row r="116" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="14"/>
+      <c r="B116" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C116" s="20"/>
+      <c r="D116" s="21"/>
+      <c r="E116" s="21"/>
+      <c r="F116" s="21"/>
+      <c r="G116" s="21"/>
+      <c r="H116" s="21"/>
+      <c r="I116" s="21"/>
+      <c r="J116" s="21"/>
+      <c r="K116" s="21"/>
+      <c r="L116" s="21"/>
+      <c r="M116" s="21"/>
+      <c r="N116" s="14"/>
+      <c r="O116" s="11"/>
+    </row>
+    <row r="117" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="14"/>
+      <c r="B117" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C117" s="20"/>
+      <c r="D117" s="21"/>
+      <c r="E117" s="21"/>
+      <c r="F117" s="21"/>
+      <c r="G117" s="21"/>
+      <c r="H117" s="21"/>
+      <c r="I117" s="21"/>
+      <c r="J117" s="21"/>
+      <c r="K117" s="21"/>
+      <c r="L117" s="21"/>
+      <c r="M117" s="21"/>
+      <c r="N117" s="14"/>
+      <c r="O117" s="11"/>
+    </row>
+    <row r="118" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="14"/>
+      <c r="B118" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C118" s="20"/>
+      <c r="D118" s="21"/>
+      <c r="E118" s="21"/>
+      <c r="F118" s="21"/>
+      <c r="G118" s="21"/>
+      <c r="H118" s="21"/>
+      <c r="I118" s="21"/>
+      <c r="J118" s="21"/>
+      <c r="K118" s="21"/>
+      <c r="L118" s="21"/>
+      <c r="M118" s="21"/>
+      <c r="N118" s="14"/>
+      <c r="O118" s="11"/>
+    </row>
+    <row r="119" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="14"/>
+      <c r="B119" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C119" s="20"/>
+      <c r="D119" s="21"/>
+      <c r="E119" s="21"/>
+      <c r="F119" s="21"/>
+      <c r="G119" s="21"/>
+      <c r="H119" s="21"/>
+      <c r="I119" s="21"/>
+      <c r="J119" s="21"/>
+      <c r="K119" s="21"/>
+      <c r="L119" s="21"/>
+      <c r="M119" s="21"/>
+      <c r="N119" s="14"/>
+      <c r="O119" s="11"/>
+    </row>
+    <row r="120" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="14"/>
+      <c r="B120" s="20"/>
+      <c r="C120" s="20"/>
+      <c r="D120" s="21"/>
+      <c r="E120" s="21"/>
+      <c r="F120" s="21"/>
+      <c r="G120" s="21"/>
+      <c r="H120" s="21"/>
+      <c r="I120" s="21"/>
+      <c r="J120" s="21"/>
+      <c r="K120" s="21"/>
+      <c r="L120" s="21"/>
+      <c r="M120" s="21"/>
+      <c r="N120" s="14"/>
+      <c r="O120" s="11"/>
+    </row>
+    <row r="121" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="14"/>
+      <c r="B121" s="20"/>
+      <c r="C121" s="20"/>
+      <c r="D121" s="21"/>
+      <c r="E121" s="21"/>
+      <c r="F121" s="21"/>
+      <c r="G121" s="21"/>
+      <c r="H121" s="21"/>
+      <c r="I121" s="21"/>
+      <c r="J121" s="21"/>
+      <c r="K121" s="21"/>
+      <c r="L121" s="21"/>
+      <c r="M121" s="21"/>
+      <c r="N121" s="14"/>
+      <c r="O121" s="11"/>
+    </row>
+    <row r="122" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="14"/>
+      <c r="B122" s="20"/>
+      <c r="C122" s="20"/>
+      <c r="D122" s="21"/>
+      <c r="E122" s="21"/>
+      <c r="F122" s="21"/>
+      <c r="G122" s="21"/>
+      <c r="H122" s="21"/>
+      <c r="I122" s="21"/>
+      <c r="J122" s="21"/>
+      <c r="K122" s="21"/>
+      <c r="L122" s="21"/>
+      <c r="M122" s="21"/>
+      <c r="N122" s="14"/>
+      <c r="O122" s="11"/>
+    </row>
+    <row r="123" spans="1:15" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="14"/>
+      <c r="B123" s="18"/>
+      <c r="C123" s="18"/>
+      <c r="D123" s="22"/>
+      <c r="E123" s="22"/>
+      <c r="F123" s="22"/>
+      <c r="G123" s="22"/>
+      <c r="H123" s="22"/>
+      <c r="I123" s="22"/>
+      <c r="J123" s="22"/>
+      <c r="K123" s="22"/>
+      <c r="L123" s="22"/>
+      <c r="M123" s="22"/>
+      <c r="N123" s="14"/>
+      <c r="O123" s="11"/>
+    </row>
+    <row r="124" spans="1:15" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="23">
+        <v>4</v>
+      </c>
+      <c r="B124" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C124" s="15"/>
+      <c r="D124" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E124" s="15"/>
+      <c r="F124" s="15"/>
+      <c r="G124" s="15"/>
+      <c r="H124" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I124" s="15"/>
+      <c r="J124" s="15"/>
+      <c r="K124" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L124" s="15"/>
+      <c r="M124" s="15"/>
+      <c r="N124" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="O124" s="13"/>
+    </row>
+    <row r="125" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="14"/>
+      <c r="B125" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C125" s="20"/>
+      <c r="D125" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E125" s="20"/>
+      <c r="F125" s="20"/>
+      <c r="G125" s="20"/>
+      <c r="H125" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I86" s="12"/>
-      <c r="J86" s="12"/>
-      <c r="K86" s="12" t="s">
+      <c r="I125" s="20"/>
+      <c r="J125" s="20"/>
+      <c r="K125" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="L86" s="12"/>
-      <c r="M86" s="12"/>
-      <c r="N86" s="10"/>
-      <c r="O86" s="11"/>
-    </row>
-    <row r="87" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="10"/>
-      <c r="B87" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C87" s="12"/>
-      <c r="D87" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="E87" s="12"/>
-      <c r="F87" s="12"/>
-      <c r="G87" s="12"/>
-      <c r="H87" s="13"/>
-      <c r="I87" s="13"/>
-      <c r="J87" s="13"/>
-      <c r="K87" s="13"/>
-      <c r="L87" s="13"/>
-      <c r="M87" s="13"/>
-      <c r="N87" s="10"/>
-      <c r="O87" s="11"/>
-    </row>
-    <row r="88" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="10"/>
-      <c r="B88" s="12" t="s">
+      <c r="L125" s="20"/>
+      <c r="M125" s="20"/>
+      <c r="N125" s="14"/>
+      <c r="O125" s="11"/>
+    </row>
+    <row r="126" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="14"/>
+      <c r="B126" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C126" s="20"/>
+      <c r="D126" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="E126" s="20"/>
+      <c r="F126" s="20"/>
+      <c r="G126" s="20"/>
+      <c r="H126" s="21"/>
+      <c r="I126" s="21"/>
+      <c r="J126" s="21"/>
+      <c r="K126" s="21"/>
+      <c r="L126" s="21"/>
+      <c r="M126" s="21"/>
+      <c r="N126" s="14"/>
+      <c r="O126" s="11"/>
+    </row>
+    <row r="127" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="14"/>
+      <c r="B127" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="C88" s="12"/>
-      <c r="D88" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="E88" s="12"/>
-      <c r="F88" s="12"/>
-      <c r="G88" s="12"/>
-      <c r="H88" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="I88" s="12"/>
-      <c r="J88" s="12"/>
-      <c r="K88" s="13"/>
-      <c r="L88" s="13"/>
-      <c r="M88" s="13"/>
-      <c r="N88" s="10"/>
-      <c r="O88" s="11"/>
-    </row>
-    <row r="89" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="10"/>
-      <c r="B89" s="12" t="s">
+      <c r="C127" s="20"/>
+      <c r="D127" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="E127" s="20"/>
+      <c r="F127" s="20"/>
+      <c r="G127" s="20"/>
+      <c r="H127" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="I127" s="20"/>
+      <c r="J127" s="20"/>
+      <c r="K127" s="21"/>
+      <c r="L127" s="21"/>
+      <c r="M127" s="21"/>
+      <c r="N127" s="14"/>
+      <c r="O127" s="11"/>
+    </row>
+    <row r="128" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="14"/>
+      <c r="B128" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C89" s="12"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="13"/>
-      <c r="F89" s="13"/>
-      <c r="G89" s="13"/>
-      <c r="H89" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="I89" s="12"/>
-      <c r="J89" s="12"/>
-      <c r="K89" s="13"/>
-      <c r="L89" s="13"/>
-      <c r="M89" s="13"/>
-      <c r="N89" s="10"/>
-      <c r="O89" s="11"/>
-    </row>
-    <row r="90" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="10"/>
-      <c r="B90" s="12" t="s">
+      <c r="C128" s="20"/>
+      <c r="D128" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E128" s="20"/>
+      <c r="F128" s="20"/>
+      <c r="G128" s="20"/>
+      <c r="H128" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="I128" s="20"/>
+      <c r="J128" s="20"/>
+      <c r="K128" s="21"/>
+      <c r="L128" s="21"/>
+      <c r="M128" s="21"/>
+      <c r="N128" s="14"/>
+      <c r="O128" s="11"/>
+    </row>
+    <row r="129" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="14"/>
+      <c r="B129" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C90" s="12"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="13"/>
-      <c r="F90" s="13"/>
-      <c r="G90" s="13"/>
-      <c r="H90" s="13"/>
-      <c r="I90" s="13"/>
-      <c r="J90" s="13"/>
-      <c r="K90" s="13"/>
-      <c r="L90" s="13"/>
-      <c r="M90" s="13"/>
-      <c r="N90" s="10"/>
-      <c r="O90" s="11"/>
-    </row>
-    <row r="91" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="10"/>
-      <c r="B91" s="12" t="s">
+      <c r="C129" s="20"/>
+      <c r="D129" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E129" s="20"/>
+      <c r="F129" s="20"/>
+      <c r="G129" s="20"/>
+      <c r="H129" s="21"/>
+      <c r="I129" s="21"/>
+      <c r="J129" s="21"/>
+      <c r="K129" s="21"/>
+      <c r="L129" s="21"/>
+      <c r="M129" s="21"/>
+      <c r="N129" s="14"/>
+      <c r="O129" s="11"/>
+    </row>
+    <row r="130" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="14"/>
+      <c r="B130" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C91" s="12"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="13"/>
-      <c r="F91" s="13"/>
-      <c r="G91" s="13"/>
-      <c r="H91" s="13"/>
-      <c r="I91" s="13"/>
-      <c r="J91" s="13"/>
-      <c r="K91" s="13"/>
-      <c r="L91" s="13"/>
-      <c r="M91" s="13"/>
-      <c r="N91" s="10"/>
-      <c r="O91" s="11"/>
-    </row>
-    <row r="92" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="10"/>
-      <c r="B92" s="12" t="s">
+      <c r="C130" s="20"/>
+      <c r="D130" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E130" s="20"/>
+      <c r="F130" s="20"/>
+      <c r="G130" s="20"/>
+      <c r="H130" s="21"/>
+      <c r="I130" s="21"/>
+      <c r="J130" s="21"/>
+      <c r="K130" s="21"/>
+      <c r="L130" s="21"/>
+      <c r="M130" s="21"/>
+      <c r="N130" s="14"/>
+      <c r="O130" s="11"/>
+    </row>
+    <row r="131" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="14"/>
+      <c r="B131" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C92" s="12"/>
-      <c r="D92" s="13"/>
-      <c r="E92" s="13"/>
-      <c r="F92" s="13"/>
-      <c r="G92" s="13"/>
-      <c r="H92" s="13"/>
-      <c r="I92" s="13"/>
-      <c r="J92" s="13"/>
-      <c r="K92" s="13"/>
-      <c r="L92" s="13"/>
-      <c r="M92" s="13"/>
-      <c r="N92" s="10"/>
-      <c r="O92" s="11"/>
-    </row>
-    <row r="93" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="10"/>
-      <c r="B93" s="12" t="s">
+      <c r="C131" s="20"/>
+      <c r="D131" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="E131" s="20"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="20"/>
+      <c r="H131" s="21"/>
+      <c r="I131" s="21"/>
+      <c r="J131" s="21"/>
+      <c r="K131" s="21"/>
+      <c r="L131" s="21"/>
+      <c r="M131" s="21"/>
+      <c r="N131" s="14"/>
+      <c r="O131" s="11"/>
+    </row>
+    <row r="132" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="14"/>
+      <c r="B132" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C93" s="12"/>
-      <c r="D93" s="13"/>
-      <c r="E93" s="13"/>
-      <c r="F93" s="13"/>
-      <c r="G93" s="13"/>
-      <c r="H93" s="13"/>
-      <c r="I93" s="13"/>
-      <c r="J93" s="13"/>
-      <c r="K93" s="13"/>
-      <c r="L93" s="13"/>
-      <c r="M93" s="13"/>
-      <c r="N93" s="10"/>
-      <c r="O93" s="11"/>
-    </row>
-    <row r="94" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="10"/>
-      <c r="B94" s="12" t="s">
+      <c r="C132" s="20"/>
+      <c r="D132" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E132" s="20"/>
+      <c r="F132" s="20"/>
+      <c r="G132" s="20"/>
+      <c r="H132" s="21"/>
+      <c r="I132" s="21"/>
+      <c r="J132" s="21"/>
+      <c r="K132" s="21"/>
+      <c r="L132" s="21"/>
+      <c r="M132" s="21"/>
+      <c r="N132" s="14"/>
+      <c r="O132" s="11"/>
+    </row>
+    <row r="133" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="14"/>
+      <c r="B133" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="C94" s="12"/>
-      <c r="D94" s="13"/>
-      <c r="E94" s="13"/>
-      <c r="F94" s="13"/>
-      <c r="G94" s="13"/>
-      <c r="H94" s="13"/>
-      <c r="I94" s="13"/>
-      <c r="J94" s="13"/>
-      <c r="K94" s="13"/>
-      <c r="L94" s="13"/>
-      <c r="M94" s="13"/>
-      <c r="N94" s="10"/>
-      <c r="O94" s="11"/>
-    </row>
-    <row r="95" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="10"/>
-      <c r="B95" s="12" t="s">
+      <c r="C133" s="20"/>
+      <c r="D133" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="E133" s="20"/>
+      <c r="F133" s="20"/>
+      <c r="G133" s="20"/>
+      <c r="H133" s="21"/>
+      <c r="I133" s="21"/>
+      <c r="J133" s="21"/>
+      <c r="K133" s="21"/>
+      <c r="L133" s="21"/>
+      <c r="M133" s="21"/>
+      <c r="N133" s="14"/>
+      <c r="O133" s="11"/>
+    </row>
+    <row r="134" spans="1:15" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="14"/>
+      <c r="B134" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C95" s="12"/>
-      <c r="D95" s="13"/>
-      <c r="E95" s="13"/>
-      <c r="F95" s="13"/>
-      <c r="G95" s="13"/>
-      <c r="H95" s="13"/>
-      <c r="I95" s="13"/>
-      <c r="J95" s="13"/>
-      <c r="K95" s="13"/>
-      <c r="L95" s="13"/>
-      <c r="M95" s="13"/>
-      <c r="N95" s="10"/>
-      <c r="O95" s="11"/>
-    </row>
-    <row r="96" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="10"/>
-      <c r="B96" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C96" s="12"/>
-      <c r="D96" s="13"/>
-      <c r="E96" s="13"/>
-      <c r="F96" s="13"/>
-      <c r="G96" s="13"/>
-      <c r="H96" s="13"/>
-      <c r="I96" s="13"/>
-      <c r="J96" s="13"/>
-      <c r="K96" s="13"/>
-      <c r="L96" s="13"/>
-      <c r="M96" s="13"/>
-      <c r="N96" s="10"/>
-      <c r="O96" s="11"/>
-    </row>
-    <row r="97" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="10"/>
-      <c r="B97" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C97" s="12"/>
-      <c r="D97" s="13"/>
-      <c r="E97" s="13"/>
-      <c r="F97" s="13"/>
-      <c r="G97" s="13"/>
-      <c r="H97" s="13"/>
-      <c r="I97" s="13"/>
-      <c r="J97" s="13"/>
-      <c r="K97" s="13"/>
-      <c r="L97" s="13"/>
-      <c r="M97" s="13"/>
-      <c r="N97" s="10"/>
-      <c r="O97" s="11"/>
-    </row>
-    <row r="98" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="10"/>
-      <c r="B98" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C98" s="12"/>
-      <c r="D98" s="13"/>
-      <c r="E98" s="13"/>
-      <c r="F98" s="13"/>
-      <c r="G98" s="13"/>
-      <c r="H98" s="13"/>
-      <c r="I98" s="13"/>
-      <c r="J98" s="13"/>
-      <c r="K98" s="13"/>
-      <c r="L98" s="13"/>
-      <c r="M98" s="13"/>
-      <c r="N98" s="10"/>
-      <c r="O98" s="11"/>
-    </row>
-    <row r="99" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="10"/>
-      <c r="B99" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C99" s="12"/>
-      <c r="D99" s="13"/>
-      <c r="E99" s="13"/>
-      <c r="F99" s="13"/>
-      <c r="G99" s="13"/>
-      <c r="H99" s="13"/>
-      <c r="I99" s="13"/>
-      <c r="J99" s="13"/>
-      <c r="K99" s="13"/>
-      <c r="L99" s="13"/>
-      <c r="M99" s="13"/>
-      <c r="N99" s="10"/>
-      <c r="O99" s="11"/>
-    </row>
-    <row r="100" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="10"/>
-      <c r="B100" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C100" s="12"/>
-      <c r="D100" s="13"/>
-      <c r="E100" s="13"/>
-      <c r="F100" s="13"/>
-      <c r="G100" s="13"/>
-      <c r="H100" s="13"/>
-      <c r="I100" s="13"/>
-      <c r="J100" s="13"/>
-      <c r="K100" s="13"/>
-      <c r="L100" s="13"/>
-      <c r="M100" s="13"/>
-      <c r="N100" s="10"/>
-      <c r="O100" s="11"/>
-    </row>
-    <row r="101" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="10"/>
-      <c r="B101" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C101" s="12"/>
-      <c r="D101" s="13"/>
-      <c r="E101" s="13"/>
-      <c r="F101" s="13"/>
-      <c r="G101" s="13"/>
-      <c r="H101" s="13"/>
-      <c r="I101" s="13"/>
-      <c r="J101" s="13"/>
-      <c r="K101" s="13"/>
-      <c r="L101" s="13"/>
-      <c r="M101" s="13"/>
-      <c r="N101" s="10"/>
-      <c r="O101" s="11"/>
-    </row>
-    <row r="102" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="10"/>
-      <c r="B102" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C102" s="12"/>
-      <c r="D102" s="13"/>
-      <c r="E102" s="13"/>
-      <c r="F102" s="13"/>
-      <c r="G102" s="13"/>
-      <c r="H102" s="13"/>
-      <c r="I102" s="13"/>
-      <c r="J102" s="13"/>
-      <c r="K102" s="13"/>
-      <c r="L102" s="13"/>
-      <c r="M102" s="13"/>
-      <c r="N102" s="10"/>
-      <c r="O102" s="11"/>
-    </row>
-    <row r="103" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="10"/>
-      <c r="B103" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="C103" s="22"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c r="G103" s="14"/>
-      <c r="H103" s="14"/>
-      <c r="I103" s="14"/>
-      <c r="J103" s="14"/>
-      <c r="K103" s="14"/>
-      <c r="L103" s="14"/>
-      <c r="M103" s="14"/>
-      <c r="N103" s="10"/>
-      <c r="O103" s="11"/>
-    </row>
-    <row r="104" spans="1:15" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="15">
-        <v>3</v>
-      </c>
-      <c r="B104" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C104" s="16"/>
-      <c r="D104" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="E104" s="16"/>
-      <c r="F104" s="16"/>
-      <c r="G104" s="16"/>
-      <c r="H104" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="I104" s="16"/>
-      <c r="J104" s="16"/>
-      <c r="K104" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="L104" s="16"/>
-      <c r="M104" s="16"/>
-      <c r="N104" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="O104" s="9"/>
-    </row>
-    <row r="105" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="10"/>
-      <c r="B105" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C105" s="12"/>
-      <c r="D105" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="E105" s="12"/>
-      <c r="F105" s="12"/>
-      <c r="G105" s="12"/>
-      <c r="H105" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I105" s="12"/>
-      <c r="J105" s="12"/>
-      <c r="K105" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="L105" s="12"/>
-      <c r="M105" s="12"/>
-      <c r="N105" s="10"/>
-      <c r="O105" s="11"/>
-    </row>
-    <row r="106" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="10"/>
-      <c r="B106" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C106" s="12"/>
-      <c r="D106" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="E106" s="12"/>
-      <c r="F106" s="12"/>
-      <c r="G106" s="12"/>
-      <c r="H106" s="13"/>
-      <c r="I106" s="13"/>
-      <c r="J106" s="13"/>
-      <c r="K106" s="13"/>
-      <c r="L106" s="13"/>
-      <c r="M106" s="13"/>
-      <c r="N106" s="10"/>
-      <c r="O106" s="11"/>
-    </row>
-    <row r="107" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="10"/>
-      <c r="B107" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C107" s="12"/>
-      <c r="D107" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="E107" s="12"/>
-      <c r="F107" s="12"/>
-      <c r="G107" s="12"/>
-      <c r="H107" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="I107" s="12"/>
-      <c r="J107" s="12"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="10"/>
-      <c r="O107" s="11"/>
-    </row>
-    <row r="108" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="10"/>
-      <c r="B108" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C108" s="12"/>
-      <c r="D108" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="E108" s="12"/>
-      <c r="F108" s="12"/>
-      <c r="G108" s="12"/>
-      <c r="H108" s="13"/>
-      <c r="I108" s="13"/>
-      <c r="J108" s="13"/>
-      <c r="K108" s="13"/>
-      <c r="L108" s="13"/>
-      <c r="M108" s="13"/>
-      <c r="N108" s="10"/>
-      <c r="O108" s="11"/>
-    </row>
-    <row r="109" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="10"/>
-      <c r="B109" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C109" s="12"/>
-      <c r="D109" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="E109" s="12"/>
-      <c r="F109" s="12"/>
-      <c r="G109" s="12"/>
-      <c r="H109" s="13"/>
-      <c r="I109" s="13"/>
-      <c r="J109" s="13"/>
-      <c r="K109" s="13"/>
-      <c r="L109" s="13"/>
-      <c r="M109" s="13"/>
-      <c r="N109" s="10"/>
-      <c r="O109" s="11"/>
-    </row>
-    <row r="110" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="10"/>
-      <c r="B110" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C110" s="12"/>
-      <c r="D110" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="E110" s="12"/>
-      <c r="F110" s="12"/>
-      <c r="G110" s="12"/>
-      <c r="H110" s="13"/>
-      <c r="I110" s="13"/>
-      <c r="J110" s="13"/>
-      <c r="K110" s="13"/>
-      <c r="L110" s="13"/>
-      <c r="M110" s="13"/>
-      <c r="N110" s="10"/>
-      <c r="O110" s="11"/>
-    </row>
-    <row r="111" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="10"/>
-      <c r="B111" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C111" s="12"/>
-      <c r="D111" s="13"/>
-      <c r="E111" s="13"/>
-      <c r="F111" s="13"/>
-      <c r="G111" s="13"/>
-      <c r="H111" s="13"/>
-      <c r="I111" s="13"/>
-      <c r="J111" s="13"/>
-      <c r="K111" s="13"/>
-      <c r="L111" s="13"/>
-      <c r="M111" s="13"/>
-      <c r="N111" s="10"/>
-      <c r="O111" s="11"/>
-    </row>
-    <row r="112" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="10"/>
-      <c r="B112" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C112" s="12"/>
-      <c r="D112" s="13"/>
-      <c r="E112" s="13"/>
-      <c r="F112" s="13"/>
-      <c r="G112" s="13"/>
-      <c r="H112" s="13"/>
-      <c r="I112" s="13"/>
-      <c r="J112" s="13"/>
-      <c r="K112" s="13"/>
-      <c r="L112" s="13"/>
-      <c r="M112" s="13"/>
-      <c r="N112" s="10"/>
-      <c r="O112" s="11"/>
-    </row>
-    <row r="113" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="10"/>
-      <c r="B113" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C113" s="12"/>
-      <c r="D113" s="13"/>
-      <c r="E113" s="13"/>
-      <c r="F113" s="13"/>
-      <c r="G113" s="13"/>
-      <c r="H113" s="13"/>
-      <c r="I113" s="13"/>
-      <c r="J113" s="13"/>
-      <c r="K113" s="13"/>
-      <c r="L113" s="13"/>
-      <c r="M113" s="13"/>
-      <c r="N113" s="10"/>
-      <c r="O113" s="11"/>
-    </row>
-    <row r="114" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="10"/>
-      <c r="B114" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C114" s="12"/>
-      <c r="D114" s="13"/>
-      <c r="E114" s="13"/>
-      <c r="F114" s="13"/>
-      <c r="G114" s="13"/>
-      <c r="H114" s="13"/>
-      <c r="I114" s="13"/>
-      <c r="J114" s="13"/>
-      <c r="K114" s="13"/>
-      <c r="L114" s="13"/>
-      <c r="M114" s="13"/>
-      <c r="N114" s="10"/>
-      <c r="O114" s="11"/>
-    </row>
-    <row r="115" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="10"/>
-      <c r="B115" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C115" s="12"/>
-      <c r="D115" s="13"/>
-      <c r="E115" s="13"/>
-      <c r="F115" s="13"/>
-      <c r="G115" s="13"/>
-      <c r="H115" s="13"/>
-      <c r="I115" s="13"/>
-      <c r="J115" s="13"/>
-      <c r="K115" s="13"/>
-      <c r="L115" s="13"/>
-      <c r="M115" s="13"/>
-      <c r="N115" s="10"/>
-      <c r="O115" s="11"/>
-    </row>
-    <row r="116" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="10"/>
-      <c r="B116" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="C116" s="12"/>
-      <c r="D116" s="13"/>
-      <c r="E116" s="13"/>
-      <c r="F116" s="13"/>
-      <c r="G116" s="13"/>
-      <c r="H116" s="13"/>
-      <c r="I116" s="13"/>
-      <c r="J116" s="13"/>
-      <c r="K116" s="13"/>
-      <c r="L116" s="13"/>
-      <c r="M116" s="13"/>
-      <c r="N116" s="10"/>
-      <c r="O116" s="11"/>
-    </row>
-    <row r="117" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="10"/>
-      <c r="B117" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="C117" s="12"/>
-      <c r="D117" s="13"/>
-      <c r="E117" s="13"/>
-      <c r="F117" s="13"/>
-      <c r="G117" s="13"/>
-      <c r="H117" s="13"/>
-      <c r="I117" s="13"/>
-      <c r="J117" s="13"/>
-      <c r="K117" s="13"/>
-      <c r="L117" s="13"/>
-      <c r="M117" s="13"/>
-      <c r="N117" s="10"/>
-      <c r="O117" s="11"/>
-    </row>
-    <row r="118" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="10"/>
-      <c r="B118" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C118" s="12"/>
-      <c r="D118" s="13"/>
-      <c r="E118" s="13"/>
-      <c r="F118" s="13"/>
-      <c r="G118" s="13"/>
-      <c r="H118" s="13"/>
-      <c r="I118" s="13"/>
-      <c r="J118" s="13"/>
-      <c r="K118" s="13"/>
-      <c r="L118" s="13"/>
-      <c r="M118" s="13"/>
-      <c r="N118" s="10"/>
-      <c r="O118" s="11"/>
-    </row>
-    <row r="119" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="10"/>
-      <c r="B119" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C119" s="12"/>
-      <c r="D119" s="13"/>
-      <c r="E119" s="13"/>
-      <c r="F119" s="13"/>
-      <c r="G119" s="13"/>
-      <c r="H119" s="13"/>
-      <c r="I119" s="13"/>
-      <c r="J119" s="13"/>
-      <c r="K119" s="13"/>
-      <c r="L119" s="13"/>
-      <c r="M119" s="13"/>
-      <c r="N119" s="10"/>
-      <c r="O119" s="11"/>
-    </row>
-    <row r="120" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="10"/>
-      <c r="B120" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C120" s="12"/>
-      <c r="D120" s="13"/>
-      <c r="E120" s="13"/>
-      <c r="F120" s="13"/>
-      <c r="G120" s="13"/>
-      <c r="H120" s="13"/>
-      <c r="I120" s="13"/>
-      <c r="J120" s="13"/>
-      <c r="K120" s="13"/>
-      <c r="L120" s="13"/>
-      <c r="M120" s="13"/>
-      <c r="N120" s="10"/>
-      <c r="O120" s="11"/>
-    </row>
-    <row r="121" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="10"/>
-      <c r="B121" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="C121" s="12"/>
-      <c r="D121" s="13"/>
-      <c r="E121" s="13"/>
-      <c r="F121" s="13"/>
-      <c r="G121" s="13"/>
-      <c r="H121" s="13"/>
-      <c r="I121" s="13"/>
-      <c r="J121" s="13"/>
-      <c r="K121" s="13"/>
-      <c r="L121" s="13"/>
-      <c r="M121" s="13"/>
-      <c r="N121" s="10"/>
-      <c r="O121" s="11"/>
-    </row>
-    <row r="122" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="10"/>
-      <c r="B122" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C122" s="12"/>
-      <c r="D122" s="13"/>
-      <c r="E122" s="13"/>
-      <c r="F122" s="13"/>
-      <c r="G122" s="13"/>
-      <c r="H122" s="13"/>
-      <c r="I122" s="13"/>
-      <c r="J122" s="13"/>
-      <c r="K122" s="13"/>
-      <c r="L122" s="13"/>
-      <c r="M122" s="13"/>
-      <c r="N122" s="10"/>
-      <c r="O122" s="11"/>
-    </row>
-    <row r="123" spans="1:15" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="10"/>
-      <c r="B123" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="C123" s="22"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
-      <c r="G123" s="14"/>
-      <c r="H123" s="14"/>
-      <c r="I123" s="14"/>
-      <c r="J123" s="14"/>
-      <c r="K123" s="14"/>
-      <c r="L123" s="14"/>
-      <c r="M123" s="14"/>
-      <c r="N123" s="10"/>
-      <c r="O123" s="11"/>
-    </row>
-    <row r="124" spans="1:15" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="15">
-        <v>4</v>
-      </c>
-      <c r="B124" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C124" s="16"/>
-      <c r="D124" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="E124" s="16"/>
-      <c r="F124" s="16"/>
-      <c r="G124" s="16"/>
-      <c r="H124" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="I124" s="16"/>
-      <c r="J124" s="16"/>
-      <c r="K124" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="L124" s="16"/>
-      <c r="M124" s="16"/>
-      <c r="N124" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="O124" s="9"/>
-    </row>
-    <row r="125" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="10"/>
-      <c r="B125" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C125" s="12"/>
-      <c r="D125" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="E125" s="12"/>
-      <c r="F125" s="12"/>
-      <c r="G125" s="12"/>
-      <c r="H125" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I125" s="12"/>
-      <c r="J125" s="12"/>
-      <c r="K125" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="L125" s="12"/>
-      <c r="M125" s="12"/>
-      <c r="N125" s="10"/>
-      <c r="O125" s="11"/>
-    </row>
-    <row r="126" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="10"/>
-      <c r="B126" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C126" s="12"/>
-      <c r="D126" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="E126" s="12"/>
-      <c r="F126" s="12"/>
-      <c r="G126" s="12"/>
-      <c r="H126" s="13"/>
-      <c r="I126" s="13"/>
-      <c r="J126" s="13"/>
-      <c r="K126" s="13"/>
-      <c r="L126" s="13"/>
-      <c r="M126" s="13"/>
-      <c r="N126" s="10"/>
-      <c r="O126" s="11"/>
-    </row>
-    <row r="127" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="10"/>
-      <c r="B127" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C127" s="12"/>
-      <c r="D127" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="E127" s="12"/>
-      <c r="F127" s="12"/>
-      <c r="G127" s="12"/>
-      <c r="H127" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="I127" s="12"/>
-      <c r="J127" s="12"/>
-      <c r="K127" s="13"/>
-      <c r="L127" s="13"/>
-      <c r="M127" s="13"/>
-      <c r="N127" s="10"/>
-      <c r="O127" s="11"/>
-    </row>
-    <row r="128" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="10"/>
-      <c r="B128" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C128" s="12"/>
-      <c r="D128" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="E128" s="12"/>
-      <c r="F128" s="12"/>
-      <c r="G128" s="12"/>
-      <c r="H128" s="12" t="s">
+      <c r="C134" s="18"/>
+      <c r="D134" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="I128" s="12"/>
-      <c r="J128" s="12"/>
-      <c r="K128" s="13"/>
-      <c r="L128" s="13"/>
-      <c r="M128" s="13"/>
-      <c r="N128" s="10"/>
-      <c r="O128" s="11"/>
-    </row>
-    <row r="129" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="10"/>
-      <c r="B129" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C129" s="12"/>
-      <c r="D129" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="E129" s="12"/>
-      <c r="F129" s="12"/>
-      <c r="G129" s="12"/>
-      <c r="H129" s="13"/>
-      <c r="I129" s="13"/>
-      <c r="J129" s="13"/>
-      <c r="K129" s="13"/>
-      <c r="L129" s="13"/>
-      <c r="M129" s="13"/>
-      <c r="N129" s="10"/>
-      <c r="O129" s="11"/>
-    </row>
-    <row r="130" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="10"/>
-      <c r="B130" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C130" s="12"/>
-      <c r="D130" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="E130" s="12"/>
-      <c r="F130" s="12"/>
-      <c r="G130" s="12"/>
-      <c r="H130" s="13"/>
-      <c r="I130" s="13"/>
-      <c r="J130" s="13"/>
-      <c r="K130" s="13"/>
-      <c r="L130" s="13"/>
-      <c r="M130" s="13"/>
-      <c r="N130" s="10"/>
-      <c r="O130" s="11"/>
-    </row>
-    <row r="131" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="10"/>
-      <c r="B131" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C131" s="12"/>
-      <c r="D131" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="E131" s="12"/>
-      <c r="F131" s="12"/>
-      <c r="G131" s="12"/>
-      <c r="H131" s="13"/>
-      <c r="I131" s="13"/>
-      <c r="J131" s="13"/>
-      <c r="K131" s="13"/>
-      <c r="L131" s="13"/>
-      <c r="M131" s="13"/>
-      <c r="N131" s="10"/>
-      <c r="O131" s="11"/>
-    </row>
-    <row r="132" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="10"/>
-      <c r="B132" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C132" s="12"/>
-      <c r="D132" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="E132" s="12"/>
-      <c r="F132" s="12"/>
-      <c r="G132" s="12"/>
-      <c r="H132" s="13"/>
-      <c r="I132" s="13"/>
-      <c r="J132" s="13"/>
-      <c r="K132" s="13"/>
-      <c r="L132" s="13"/>
-      <c r="M132" s="13"/>
-      <c r="N132" s="10"/>
-      <c r="O132" s="11"/>
-    </row>
-    <row r="133" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="10"/>
-      <c r="B133" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C133" s="12"/>
-      <c r="D133" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="E133" s="12"/>
-      <c r="F133" s="12"/>
-      <c r="G133" s="12"/>
-      <c r="H133" s="13"/>
-      <c r="I133" s="13"/>
-      <c r="J133" s="13"/>
-      <c r="K133" s="13"/>
-      <c r="L133" s="13"/>
-      <c r="M133" s="13"/>
-      <c r="N133" s="10"/>
-      <c r="O133" s="11"/>
-    </row>
-    <row r="134" spans="1:15" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="10"/>
-      <c r="B134" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="C134" s="22"/>
-      <c r="D134" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="E134" s="22"/>
-      <c r="F134" s="22"/>
-      <c r="G134" s="22"/>
-      <c r="H134" s="14"/>
-      <c r="I134" s="14"/>
-      <c r="J134" s="14"/>
-      <c r="K134" s="14"/>
-      <c r="L134" s="14"/>
-      <c r="M134" s="14"/>
-      <c r="N134" s="10"/>
+      <c r="E134" s="18"/>
+      <c r="F134" s="18"/>
+      <c r="G134" s="18"/>
+      <c r="H134" s="22"/>
+      <c r="I134" s="22"/>
+      <c r="J134" s="22"/>
+      <c r="K134" s="22"/>
+      <c r="L134" s="22"/>
+      <c r="M134" s="22"/>
+      <c r="N134" s="14"/>
       <c r="O134" s="11"/>
     </row>
     <row r="135" spans="1:15" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="7"/>
-      <c r="B135" s="16" t="s">
+      <c r="B135" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C135" s="16"/>
-      <c r="D135" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="E135" s="16"/>
-      <c r="F135" s="16"/>
-      <c r="G135" s="16"/>
-      <c r="H135" s="27"/>
-      <c r="I135" s="27"/>
-      <c r="J135" s="27"/>
-      <c r="K135" s="27"/>
-      <c r="L135" s="27"/>
-      <c r="M135" s="27"/>
-      <c r="N135" s="27"/>
-      <c r="O135" s="27"/>
+      <c r="C135" s="15"/>
+      <c r="D135" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E135" s="15"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="15"/>
+      <c r="H135" s="33"/>
+      <c r="I135" s="33"/>
+      <c r="J135" s="33"/>
+      <c r="K135" s="33"/>
+      <c r="L135" s="33"/>
+      <c r="M135" s="33"/>
+      <c r="N135" s="33"/>
+      <c r="O135" s="33"/>
     </row>
     <row r="136" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="5"/>
-      <c r="B136" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="C136" s="12"/>
-      <c r="D136" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="E136" s="12"/>
-      <c r="F136" s="12"/>
-      <c r="G136" s="12"/>
-      <c r="H136" s="13"/>
-      <c r="I136" s="13"/>
-      <c r="J136" s="13"/>
-      <c r="K136" s="13"/>
-      <c r="L136" s="13"/>
-      <c r="M136" s="13"/>
-      <c r="N136" s="13"/>
-      <c r="O136" s="13"/>
+      <c r="B136" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C136" s="20"/>
+      <c r="D136" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="E136" s="20"/>
+      <c r="F136" s="20"/>
+      <c r="G136" s="20"/>
+      <c r="H136" s="21"/>
+      <c r="I136" s="21"/>
+      <c r="J136" s="21"/>
+      <c r="K136" s="21"/>
+      <c r="L136" s="21"/>
+      <c r="M136" s="21"/>
+      <c r="N136" s="21"/>
+      <c r="O136" s="21"/>
     </row>
     <row r="137" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="5"/>
-      <c r="B137" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C137" s="12"/>
-      <c r="D137" s="13"/>
-      <c r="E137" s="13"/>
-      <c r="F137" s="13"/>
-      <c r="G137" s="13"/>
-      <c r="H137" s="13"/>
-      <c r="I137" s="13"/>
-      <c r="J137" s="13"/>
-      <c r="K137" s="13"/>
-      <c r="L137" s="13"/>
-      <c r="M137" s="13"/>
-      <c r="N137" s="13"/>
-      <c r="O137" s="13"/>
+      <c r="B137" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C137" s="20"/>
+      <c r="D137" s="21"/>
+      <c r="E137" s="21"/>
+      <c r="F137" s="21"/>
+      <c r="G137" s="21"/>
+      <c r="H137" s="21"/>
+      <c r="I137" s="21"/>
+      <c r="J137" s="21"/>
+      <c r="K137" s="21"/>
+      <c r="L137" s="21"/>
+      <c r="M137" s="21"/>
+      <c r="N137" s="21"/>
+      <c r="O137" s="21"/>
     </row>
     <row r="138" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="5"/>
-      <c r="B138" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="C138" s="12"/>
-      <c r="D138" s="13"/>
-      <c r="E138" s="13"/>
-      <c r="F138" s="13"/>
-      <c r="G138" s="13"/>
-      <c r="H138" s="13"/>
-      <c r="I138" s="13"/>
-      <c r="J138" s="13"/>
-      <c r="K138" s="13"/>
-      <c r="L138" s="13"/>
-      <c r="M138" s="13"/>
-      <c r="N138" s="13"/>
-      <c r="O138" s="13"/>
+      <c r="B138" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C138" s="20"/>
+      <c r="D138" s="21"/>
+      <c r="E138" s="21"/>
+      <c r="F138" s="21"/>
+      <c r="G138" s="21"/>
+      <c r="H138" s="21"/>
+      <c r="I138" s="21"/>
+      <c r="J138" s="21"/>
+      <c r="K138" s="21"/>
+      <c r="L138" s="21"/>
+      <c r="M138" s="21"/>
+      <c r="N138" s="21"/>
+      <c r="O138" s="21"/>
     </row>
     <row r="139" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="5"/>
-      <c r="B139" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="C139" s="12"/>
-      <c r="D139" s="13"/>
-      <c r="E139" s="13"/>
-      <c r="F139" s="13"/>
-      <c r="G139" s="13"/>
-      <c r="H139" s="13"/>
-      <c r="I139" s="13"/>
-      <c r="J139" s="13"/>
-      <c r="K139" s="13"/>
-      <c r="L139" s="13"/>
-      <c r="M139" s="13"/>
-      <c r="N139" s="13"/>
-      <c r="O139" s="13"/>
+      <c r="B139" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C139" s="20"/>
+      <c r="D139" s="21"/>
+      <c r="E139" s="21"/>
+      <c r="F139" s="21"/>
+      <c r="G139" s="21"/>
+      <c r="H139" s="21"/>
+      <c r="I139" s="21"/>
+      <c r="J139" s="21"/>
+      <c r="K139" s="21"/>
+      <c r="L139" s="21"/>
+      <c r="M139" s="21"/>
+      <c r="N139" s="21"/>
+      <c r="O139" s="21"/>
     </row>
     <row r="140" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="5"/>
-      <c r="B140" s="12" t="s">
+      <c r="B140" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="C140" s="12"/>
-      <c r="D140" s="13"/>
-      <c r="E140" s="13"/>
-      <c r="F140" s="13"/>
-      <c r="G140" s="13"/>
-      <c r="H140" s="13"/>
-      <c r="I140" s="13"/>
-      <c r="J140" s="13"/>
-      <c r="K140" s="13"/>
-      <c r="L140" s="13"/>
-      <c r="M140" s="13"/>
-      <c r="N140" s="13"/>
-      <c r="O140" s="13"/>
+      <c r="C140" s="20"/>
+      <c r="D140" s="21"/>
+      <c r="E140" s="21"/>
+      <c r="F140" s="21"/>
+      <c r="G140" s="21"/>
+      <c r="H140" s="21"/>
+      <c r="I140" s="21"/>
+      <c r="J140" s="21"/>
+      <c r="K140" s="21"/>
+      <c r="L140" s="21"/>
+      <c r="M140" s="21"/>
+      <c r="N140" s="21"/>
+      <c r="O140" s="21"/>
     </row>
     <row r="141" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="5"/>
-      <c r="B141" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="C141" s="12"/>
-      <c r="D141" s="13"/>
-      <c r="E141" s="13"/>
-      <c r="F141" s="13"/>
-      <c r="G141" s="13"/>
-      <c r="H141" s="13"/>
-      <c r="I141" s="13"/>
-      <c r="J141" s="13"/>
-      <c r="K141" s="13"/>
-      <c r="L141" s="13"/>
-      <c r="M141" s="13"/>
-      <c r="N141" s="13"/>
-      <c r="O141" s="13"/>
+      <c r="B141" s="20"/>
+      <c r="C141" s="20"/>
+      <c r="D141" s="21"/>
+      <c r="E141" s="21"/>
+      <c r="F141" s="21"/>
+      <c r="G141" s="21"/>
+      <c r="H141" s="21"/>
+      <c r="I141" s="21"/>
+      <c r="J141" s="21"/>
+      <c r="K141" s="21"/>
+      <c r="L141" s="21"/>
+      <c r="M141" s="21"/>
+      <c r="N141" s="21"/>
+      <c r="O141" s="21"/>
     </row>
     <row r="142" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="5"/>
-      <c r="B142" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C142" s="12"/>
-      <c r="D142" s="13"/>
-      <c r="E142" s="13"/>
-      <c r="F142" s="13"/>
-      <c r="G142" s="13"/>
-      <c r="H142" s="13"/>
-      <c r="I142" s="13"/>
-      <c r="J142" s="13"/>
-      <c r="K142" s="13"/>
-      <c r="L142" s="13"/>
-      <c r="M142" s="13"/>
-      <c r="N142" s="13"/>
-      <c r="O142" s="13"/>
+      <c r="B142" s="20"/>
+      <c r="C142" s="20"/>
+      <c r="D142" s="21"/>
+      <c r="E142" s="21"/>
+      <c r="F142" s="21"/>
+      <c r="G142" s="21"/>
+      <c r="H142" s="21"/>
+      <c r="I142" s="21"/>
+      <c r="J142" s="21"/>
+      <c r="K142" s="21"/>
+      <c r="L142" s="21"/>
+      <c r="M142" s="21"/>
+      <c r="N142" s="21"/>
+      <c r="O142" s="21"/>
     </row>
     <row r="143" spans="1:15" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="6"/>
-      <c r="B143" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="C143" s="22"/>
-      <c r="D143" s="14"/>
-      <c r="E143" s="14"/>
-      <c r="F143" s="14"/>
-      <c r="G143" s="14"/>
-      <c r="H143" s="14"/>
-      <c r="I143" s="14"/>
-      <c r="J143" s="14"/>
-      <c r="K143" s="14"/>
-      <c r="L143" s="14"/>
-      <c r="M143" s="14"/>
-      <c r="N143" s="14"/>
-      <c r="O143" s="14"/>
+      <c r="B143" s="18"/>
+      <c r="C143" s="18"/>
+      <c r="D143" s="22"/>
+      <c r="E143" s="22"/>
+      <c r="F143" s="22"/>
+      <c r="G143" s="22"/>
+      <c r="H143" s="22"/>
+      <c r="I143" s="22"/>
+      <c r="J143" s="22"/>
+      <c r="K143" s="22"/>
+      <c r="L143" s="22"/>
+      <c r="M143" s="22"/>
+      <c r="N143" s="22"/>
+      <c r="O143" s="22"/>
     </row>
     <row r="144" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="15">
+      <c r="A144" s="23">
         <v>5</v>
       </c>
-      <c r="B144" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C144" s="16"/>
-      <c r="D144" s="16" t="s">
+      <c r="B144" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C144" s="15"/>
+      <c r="D144" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="E144" s="16"/>
-      <c r="F144" s="16"/>
-      <c r="G144" s="16"/>
-      <c r="H144" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="I144" s="17"/>
-      <c r="J144" s="17"/>
-      <c r="K144" s="16" t="s">
+      <c r="E144" s="15"/>
+      <c r="F144" s="15"/>
+      <c r="G144" s="15"/>
+      <c r="H144" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="I144" s="26"/>
+      <c r="J144" s="26"/>
+      <c r="K144" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="L144" s="16"/>
-      <c r="M144" s="16"/>
-      <c r="N144" s="9" t="s">
+      <c r="L144" s="15"/>
+      <c r="M144" s="15"/>
+      <c r="N144" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O144" s="9"/>
+      <c r="O144" s="13"/>
     </row>
     <row r="145" spans="1:15" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="10"/>
-      <c r="B145" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C145" s="12"/>
-      <c r="D145" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="E145" s="12"/>
-      <c r="F145" s="12"/>
-      <c r="G145" s="12"/>
-      <c r="H145" s="10"/>
+      <c r="A145" s="14"/>
+      <c r="B145" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C145" s="20"/>
+      <c r="D145" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="E145" s="20"/>
+      <c r="F145" s="20"/>
+      <c r="G145" s="20"/>
+      <c r="H145" s="14"/>
       <c r="I145" s="11"/>
       <c r="J145" s="11"/>
-      <c r="K145" s="12" t="s">
+      <c r="K145" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="L145" s="12"/>
-      <c r="M145" s="12"/>
-      <c r="N145" s="10"/>
+      <c r="L145" s="20"/>
+      <c r="M145" s="20"/>
+      <c r="N145" s="14"/>
       <c r="O145" s="11"/>
     </row>
     <row r="146" spans="1:15" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="10"/>
-      <c r="B146" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C146" s="12"/>
-      <c r="D146" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="E146" s="12"/>
-      <c r="F146" s="12"/>
-      <c r="G146" s="12"/>
-      <c r="H146" s="10"/>
+      <c r="A146" s="14"/>
+      <c r="B146" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C146" s="20"/>
+      <c r="D146" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="E146" s="20"/>
+      <c r="F146" s="20"/>
+      <c r="G146" s="20"/>
+      <c r="H146" s="14"/>
       <c r="I146" s="11"/>
       <c r="J146" s="11"/>
-      <c r="K146" s="13"/>
-      <c r="L146" s="13"/>
-      <c r="M146" s="13"/>
-      <c r="N146" s="10"/>
+      <c r="K146" s="21"/>
+      <c r="L146" s="21"/>
+      <c r="M146" s="21"/>
+      <c r="N146" s="14"/>
       <c r="O146" s="11"/>
     </row>
     <row r="147" spans="1:15" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="10"/>
-      <c r="B147" s="12" t="s">
+      <c r="A147" s="14"/>
+      <c r="B147" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="C147" s="12"/>
-      <c r="D147" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E147" s="12"/>
-      <c r="F147" s="12"/>
-      <c r="G147" s="12"/>
-      <c r="H147" s="10"/>
+      <c r="C147" s="20"/>
+      <c r="D147" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="E147" s="20"/>
+      <c r="F147" s="20"/>
+      <c r="G147" s="20"/>
+      <c r="H147" s="14"/>
       <c r="I147" s="11"/>
       <c r="J147" s="11"/>
-      <c r="K147" s="13"/>
-      <c r="L147" s="13"/>
-      <c r="M147" s="13"/>
-      <c r="N147" s="10"/>
+      <c r="K147" s="21"/>
+      <c r="L147" s="21"/>
+      <c r="M147" s="21"/>
+      <c r="N147" s="14"/>
       <c r="O147" s="11"/>
     </row>
     <row r="148" spans="1:15" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="10"/>
-      <c r="B148" s="12" t="s">
+      <c r="A148" s="14"/>
+      <c r="B148" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C148" s="12"/>
-      <c r="D148" s="13"/>
-      <c r="E148" s="13"/>
-      <c r="F148" s="13"/>
-      <c r="G148" s="13"/>
-      <c r="H148" s="10"/>
+      <c r="C148" s="20"/>
+      <c r="D148" s="21"/>
+      <c r="E148" s="21"/>
+      <c r="F148" s="21"/>
+      <c r="G148" s="21"/>
+      <c r="H148" s="14"/>
       <c r="I148" s="11"/>
       <c r="J148" s="11"/>
-      <c r="K148" s="13"/>
-      <c r="L148" s="13"/>
-      <c r="M148" s="13"/>
-      <c r="N148" s="10"/>
+      <c r="K148" s="21"/>
+      <c r="L148" s="21"/>
+      <c r="M148" s="21"/>
+      <c r="N148" s="14"/>
       <c r="O148" s="11"/>
     </row>
     <row r="149" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="10"/>
-      <c r="B149" s="12" t="s">
+      <c r="A149" s="14"/>
+      <c r="B149" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C149" s="12"/>
-      <c r="D149" s="13"/>
-      <c r="E149" s="13"/>
-      <c r="F149" s="13"/>
-      <c r="G149" s="13"/>
-      <c r="H149" s="10"/>
+      <c r="C149" s="20"/>
+      <c r="D149" s="21"/>
+      <c r="E149" s="21"/>
+      <c r="F149" s="21"/>
+      <c r="G149" s="21"/>
+      <c r="H149" s="14"/>
       <c r="I149" s="11"/>
       <c r="J149" s="11"/>
-      <c r="K149" s="13"/>
-      <c r="L149" s="13"/>
-      <c r="M149" s="13"/>
-      <c r="N149" s="10"/>
+      <c r="K149" s="21"/>
+      <c r="L149" s="21"/>
+      <c r="M149" s="21"/>
+      <c r="N149" s="14"/>
       <c r="O149" s="11"/>
     </row>
     <row r="150" spans="1:15" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="10"/>
-      <c r="B150" s="12" t="s">
+      <c r="A150" s="14"/>
+      <c r="B150" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C150" s="12"/>
-      <c r="D150" s="13"/>
-      <c r="E150" s="13"/>
-      <c r="F150" s="13"/>
-      <c r="G150" s="13"/>
-      <c r="H150" s="10"/>
+      <c r="C150" s="20"/>
+      <c r="D150" s="21"/>
+      <c r="E150" s="21"/>
+      <c r="F150" s="21"/>
+      <c r="G150" s="21"/>
+      <c r="H150" s="14"/>
       <c r="I150" s="11"/>
       <c r="J150" s="11"/>
-      <c r="K150" s="13"/>
-      <c r="L150" s="13"/>
-      <c r="M150" s="13"/>
-      <c r="N150" s="10"/>
+      <c r="K150" s="21"/>
+      <c r="L150" s="21"/>
+      <c r="M150" s="21"/>
+      <c r="N150" s="14"/>
       <c r="O150" s="11"/>
     </row>
     <row r="151" spans="1:15" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="10"/>
-      <c r="B151" s="12" t="s">
+      <c r="A151" s="14"/>
+      <c r="B151" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C151" s="12"/>
-      <c r="D151" s="13"/>
-      <c r="E151" s="13"/>
-      <c r="F151" s="13"/>
-      <c r="G151" s="13"/>
-      <c r="H151" s="10"/>
+      <c r="C151" s="20"/>
+      <c r="D151" s="21"/>
+      <c r="E151" s="21"/>
+      <c r="F151" s="21"/>
+      <c r="G151" s="21"/>
+      <c r="H151" s="14"/>
       <c r="I151" s="11"/>
       <c r="J151" s="11"/>
-      <c r="K151" s="13"/>
-      <c r="L151" s="13"/>
-      <c r="M151" s="13"/>
-      <c r="N151" s="10"/>
+      <c r="K151" s="21"/>
+      <c r="L151" s="21"/>
+      <c r="M151" s="21"/>
+      <c r="N151" s="14"/>
       <c r="O151" s="11"/>
     </row>
     <row r="152" spans="1:15" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="10"/>
-      <c r="B152" s="12" t="s">
+      <c r="A152" s="14"/>
+      <c r="B152" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C152" s="12"/>
-      <c r="D152" s="13"/>
-      <c r="E152" s="13"/>
-      <c r="F152" s="13"/>
-      <c r="G152" s="13"/>
-      <c r="H152" s="10"/>
+      <c r="C152" s="20"/>
+      <c r="D152" s="21"/>
+      <c r="E152" s="21"/>
+      <c r="F152" s="21"/>
+      <c r="G152" s="21"/>
+      <c r="H152" s="14"/>
       <c r="I152" s="11"/>
       <c r="J152" s="11"/>
-      <c r="K152" s="13"/>
-      <c r="L152" s="13"/>
-      <c r="M152" s="13"/>
-      <c r="N152" s="10"/>
+      <c r="K152" s="21"/>
+      <c r="L152" s="21"/>
+      <c r="M152" s="21"/>
+      <c r="N152" s="14"/>
       <c r="O152" s="11"/>
     </row>
     <row r="153" spans="1:15" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="10"/>
-      <c r="B153" s="12" t="s">
+      <c r="A153" s="14"/>
+      <c r="B153" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="C153" s="12"/>
-      <c r="D153" s="13"/>
-      <c r="E153" s="13"/>
-      <c r="F153" s="13"/>
-      <c r="G153" s="13"/>
-      <c r="H153" s="10"/>
+      <c r="C153" s="20"/>
+      <c r="D153" s="21"/>
+      <c r="E153" s="21"/>
+      <c r="F153" s="21"/>
+      <c r="G153" s="21"/>
+      <c r="H153" s="14"/>
       <c r="I153" s="11"/>
       <c r="J153" s="11"/>
-      <c r="K153" s="13"/>
-      <c r="L153" s="13"/>
-      <c r="M153" s="13"/>
-      <c r="N153" s="10"/>
+      <c r="K153" s="21"/>
+      <c r="L153" s="21"/>
+      <c r="M153" s="21"/>
+      <c r="N153" s="14"/>
       <c r="O153" s="11"/>
     </row>
     <row r="154" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="10"/>
-      <c r="B154" s="12" t="s">
+      <c r="A154" s="14"/>
+      <c r="B154" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="C154" s="12"/>
-      <c r="D154" s="13"/>
-      <c r="E154" s="13"/>
-      <c r="F154" s="13"/>
-      <c r="G154" s="13"/>
-      <c r="H154" s="10"/>
+      <c r="C154" s="20"/>
+      <c r="D154" s="21"/>
+      <c r="E154" s="21"/>
+      <c r="F154" s="21"/>
+      <c r="G154" s="21"/>
+      <c r="H154" s="14"/>
       <c r="I154" s="11"/>
       <c r="J154" s="11"/>
-      <c r="K154" s="13"/>
-      <c r="L154" s="13"/>
-      <c r="M154" s="13"/>
-      <c r="N154" s="10"/>
+      <c r="K154" s="21"/>
+      <c r="L154" s="21"/>
+      <c r="M154" s="21"/>
+      <c r="N154" s="14"/>
       <c r="O154" s="11"/>
     </row>
     <row r="155" spans="1:15" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="10"/>
-      <c r="B155" s="12" t="s">
+      <c r="A155" s="14"/>
+      <c r="B155" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="C155" s="12"/>
-      <c r="D155" s="13"/>
-      <c r="E155" s="13"/>
-      <c r="F155" s="13"/>
-      <c r="G155" s="13"/>
-      <c r="H155" s="10"/>
+      <c r="C155" s="20"/>
+      <c r="D155" s="21"/>
+      <c r="E155" s="21"/>
+      <c r="F155" s="21"/>
+      <c r="G155" s="21"/>
+      <c r="H155" s="14"/>
       <c r="I155" s="11"/>
       <c r="J155" s="11"/>
-      <c r="K155" s="13"/>
-      <c r="L155" s="13"/>
-      <c r="M155" s="13"/>
-      <c r="N155" s="10"/>
+      <c r="K155" s="21"/>
+      <c r="L155" s="21"/>
+      <c r="M155" s="21"/>
+      <c r="N155" s="14"/>
       <c r="O155" s="11"/>
     </row>
     <row r="156" spans="1:15" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="10"/>
-      <c r="B156" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="C156" s="12"/>
-      <c r="D156" s="13"/>
-      <c r="E156" s="13"/>
-      <c r="F156" s="13"/>
-      <c r="G156" s="13"/>
-      <c r="H156" s="10"/>
+      <c r="A156" s="14"/>
+      <c r="B156" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C156" s="20"/>
+      <c r="D156" s="21"/>
+      <c r="E156" s="21"/>
+      <c r="F156" s="21"/>
+      <c r="G156" s="21"/>
+      <c r="H156" s="14"/>
       <c r="I156" s="11"/>
       <c r="J156" s="11"/>
-      <c r="K156" s="13"/>
-      <c r="L156" s="13"/>
-      <c r="M156" s="13"/>
-      <c r="N156" s="10"/>
+      <c r="K156" s="21"/>
+      <c r="L156" s="21"/>
+      <c r="M156" s="21"/>
+      <c r="N156" s="14"/>
       <c r="O156" s="11"/>
     </row>
     <row r="157" spans="1:15" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="10"/>
-      <c r="B157" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C157" s="12"/>
-      <c r="D157" s="13"/>
-      <c r="E157" s="13"/>
-      <c r="F157" s="13"/>
-      <c r="G157" s="13"/>
-      <c r="H157" s="10"/>
+      <c r="A157" s="14"/>
+      <c r="B157" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C157" s="20"/>
+      <c r="D157" s="21"/>
+      <c r="E157" s="21"/>
+      <c r="F157" s="21"/>
+      <c r="G157" s="21"/>
+      <c r="H157" s="14"/>
       <c r="I157" s="11"/>
       <c r="J157" s="11"/>
-      <c r="K157" s="13"/>
-      <c r="L157" s="13"/>
-      <c r="M157" s="13"/>
-      <c r="N157" s="10"/>
+      <c r="K157" s="21"/>
+      <c r="L157" s="21"/>
+      <c r="M157" s="21"/>
+      <c r="N157" s="14"/>
       <c r="O157" s="11"/>
     </row>
     <row r="158" spans="1:15" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="10"/>
-      <c r="B158" s="12" t="s">
+      <c r="A158" s="14"/>
+      <c r="B158" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="C158" s="12"/>
-      <c r="D158" s="13"/>
-      <c r="E158" s="13"/>
-      <c r="F158" s="13"/>
-      <c r="G158" s="13"/>
-      <c r="H158" s="10"/>
+      <c r="C158" s="20"/>
+      <c r="D158" s="21"/>
+      <c r="E158" s="21"/>
+      <c r="F158" s="21"/>
+      <c r="G158" s="21"/>
+      <c r="H158" s="14"/>
       <c r="I158" s="11"/>
       <c r="J158" s="11"/>
-      <c r="K158" s="13"/>
-      <c r="L158" s="13"/>
-      <c r="M158" s="13"/>
-      <c r="N158" s="10"/>
+      <c r="K158" s="21"/>
+      <c r="L158" s="21"/>
+      <c r="M158" s="21"/>
+      <c r="N158" s="14"/>
       <c r="O158" s="11"/>
     </row>
     <row r="159" spans="1:15" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="10"/>
-      <c r="B159" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="C159" s="12"/>
-      <c r="D159" s="13"/>
-      <c r="E159" s="13"/>
-      <c r="F159" s="13"/>
-      <c r="G159" s="13"/>
-      <c r="H159" s="10"/>
+      <c r="A159" s="14"/>
+      <c r="B159" s="20"/>
+      <c r="C159" s="20"/>
+      <c r="D159" s="21"/>
+      <c r="E159" s="21"/>
+      <c r="F159" s="21"/>
+      <c r="G159" s="21"/>
+      <c r="H159" s="14"/>
       <c r="I159" s="11"/>
       <c r="J159" s="11"/>
-      <c r="K159" s="13"/>
-      <c r="L159" s="13"/>
-      <c r="M159" s="13"/>
-      <c r="N159" s="10"/>
+      <c r="K159" s="21"/>
+      <c r="L159" s="21"/>
+      <c r="M159" s="21"/>
+      <c r="N159" s="14"/>
       <c r="O159" s="11"/>
     </row>
     <row r="160" spans="1:15" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="10"/>
-      <c r="B160" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C160" s="12"/>
-      <c r="D160" s="13"/>
-      <c r="E160" s="13"/>
-      <c r="F160" s="13"/>
-      <c r="G160" s="13"/>
-      <c r="H160" s="10"/>
+      <c r="A160" s="14"/>
+      <c r="B160" s="20"/>
+      <c r="C160" s="20"/>
+      <c r="D160" s="21"/>
+      <c r="E160" s="21"/>
+      <c r="F160" s="21"/>
+      <c r="G160" s="21"/>
+      <c r="H160" s="14"/>
       <c r="I160" s="11"/>
       <c r="J160" s="11"/>
-      <c r="K160" s="13"/>
-      <c r="L160" s="13"/>
-      <c r="M160" s="13"/>
-      <c r="N160" s="10"/>
+      <c r="K160" s="21"/>
+      <c r="L160" s="21"/>
+      <c r="M160" s="21"/>
+      <c r="N160" s="14"/>
       <c r="O160" s="11"/>
     </row>
     <row r="161" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="10"/>
-      <c r="B161" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="C161" s="22"/>
-      <c r="D161" s="14"/>
-      <c r="E161" s="14"/>
-      <c r="F161" s="14"/>
-      <c r="G161" s="14"/>
-      <c r="H161" s="10"/>
+      <c r="A161" s="14"/>
+      <c r="B161" s="18"/>
+      <c r="C161" s="18"/>
+      <c r="D161" s="22"/>
+      <c r="E161" s="22"/>
+      <c r="F161" s="22"/>
+      <c r="G161" s="22"/>
+      <c r="H161" s="14"/>
       <c r="I161" s="11"/>
       <c r="J161" s="11"/>
-      <c r="K161" s="14"/>
-      <c r="L161" s="14"/>
-      <c r="M161" s="14"/>
-      <c r="N161" s="10"/>
+      <c r="K161" s="22"/>
+      <c r="L161" s="22"/>
+      <c r="M161" s="22"/>
+      <c r="N161" s="14"/>
       <c r="O161" s="11"/>
     </row>
     <row r="162" spans="1:16" ht="32.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="B162" s="23"/>
-      <c r="C162" s="23"/>
-      <c r="D162" s="23"/>
-      <c r="E162" s="23"/>
-      <c r="F162" s="23"/>
-      <c r="G162" s="23"/>
-      <c r="H162" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="I162" s="24"/>
-      <c r="J162" s="24"/>
-      <c r="K162" s="24"/>
-      <c r="L162" s="24"/>
-      <c r="M162" s="24"/>
-      <c r="N162" s="24"/>
-      <c r="O162" s="24"/>
-      <c r="P162" s="24"/>
+      <c r="A162" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="B162" s="27"/>
+      <c r="C162" s="27"/>
+      <c r="D162" s="27"/>
+      <c r="E162" s="27"/>
+      <c r="F162" s="27"/>
+      <c r="G162" s="27"/>
+      <c r="H162" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="I162" s="28"/>
+      <c r="J162" s="28"/>
+      <c r="K162" s="28"/>
+      <c r="L162" s="28"/>
+      <c r="M162" s="28"/>
+      <c r="N162" s="28"/>
+      <c r="O162" s="28"/>
+      <c r="P162" s="28"/>
     </row>
     <row r="163" spans="1:16" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="25"/>
-      <c r="B163" s="25"/>
-      <c r="C163" s="25"/>
-      <c r="D163" s="25"/>
-      <c r="E163" s="25"/>
-      <c r="F163" s="25"/>
-      <c r="G163" s="25"/>
-      <c r="H163" s="25"/>
+      <c r="A163" s="29"/>
+      <c r="B163" s="29"/>
+      <c r="C163" s="29"/>
+      <c r="D163" s="29"/>
+      <c r="E163" s="29"/>
+      <c r="F163" s="29"/>
+      <c r="G163" s="29"/>
+      <c r="H163" s="29"/>
       <c r="I163" s="11"/>
       <c r="J163" s="11"/>
       <c r="K163" s="11"/>
@@ -13221,954 +13154,1524 @@
       <c r="P163" s="11"/>
     </row>
     <row r="164" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="B164" s="26"/>
-      <c r="C164" s="26"/>
-      <c r="D164" s="26"/>
-      <c r="E164" s="26"/>
-      <c r="F164" s="26"/>
-      <c r="G164" s="26"/>
-      <c r="H164" s="26"/>
-      <c r="I164" s="26"/>
-      <c r="J164" s="26"/>
-      <c r="K164" s="26"/>
-      <c r="L164" s="26"/>
-      <c r="M164" s="26"/>
-      <c r="N164" s="26"/>
-      <c r="O164" s="26"/>
-      <c r="P164" s="26"/>
+      <c r="A164" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="B164" s="30"/>
+      <c r="C164" s="30"/>
+      <c r="D164" s="30"/>
+      <c r="E164" s="30"/>
+      <c r="F164" s="30"/>
+      <c r="G164" s="30"/>
+      <c r="H164" s="30"/>
+      <c r="I164" s="30"/>
+      <c r="J164" s="30"/>
+      <c r="K164" s="30"/>
+      <c r="L164" s="30"/>
+      <c r="M164" s="30"/>
+      <c r="N164" s="30"/>
+      <c r="O164" s="30"/>
+      <c r="P164" s="30"/>
     </row>
     <row r="165" spans="1:16" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="9" t="s">
+      <c r="A165" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C165" s="21" t="s">
+      <c r="C165" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D165" s="21"/>
-      <c r="E165" s="21"/>
-      <c r="F165" s="21"/>
-      <c r="G165" s="21"/>
-      <c r="H165" s="21"/>
-      <c r="I165" s="21"/>
-      <c r="J165" s="9" t="s">
+      <c r="D165" s="16"/>
+      <c r="E165" s="16"/>
+      <c r="F165" s="16"/>
+      <c r="G165" s="16"/>
+      <c r="H165" s="16"/>
+      <c r="I165" s="16"/>
+      <c r="J165" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K165" s="9"/>
-      <c r="L165" s="16" t="s">
+      <c r="K165" s="13"/>
+      <c r="L165" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="M165" s="16"/>
-      <c r="N165" s="9" t="s">
+      <c r="M165" s="15"/>
+      <c r="N165" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="O165" s="9"/>
+      <c r="O165" s="13"/>
     </row>
     <row r="166" spans="1:16" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="10"/>
+      <c r="A166" s="14"/>
       <c r="B166" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C166" s="10"/>
+      <c r="C166" s="14"/>
       <c r="D166" s="11"/>
       <c r="E166" s="11"/>
       <c r="F166" s="11"/>
       <c r="G166" s="11"/>
       <c r="H166" s="11"/>
       <c r="I166" s="11"/>
-      <c r="J166" s="10"/>
+      <c r="J166" s="14"/>
       <c r="K166" s="11"/>
-      <c r="L166" s="22" t="s">
+      <c r="L166" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="M166" s="22"/>
-      <c r="N166" s="10"/>
+      <c r="M166" s="18"/>
+      <c r="N166" s="14"/>
       <c r="O166" s="11"/>
     </row>
     <row r="167" spans="1:16" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="15">
+      <c r="A167" s="23">
         <v>1</v>
       </c>
-      <c r="B167" s="17" t="s">
+      <c r="B167" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="C167" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D167" s="15"/>
+      <c r="E167" s="15"/>
+      <c r="F167" s="15"/>
+      <c r="G167" s="15"/>
+      <c r="H167" s="15"/>
+      <c r="I167" s="15"/>
+      <c r="J167" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K167" s="15"/>
+      <c r="L167" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="M167" s="15"/>
+      <c r="N167" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="O167" s="13"/>
+    </row>
+    <row r="168" spans="1:16" ht="41.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="14"/>
+      <c r="B168" s="14"/>
+      <c r="C168" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="D168" s="31"/>
+      <c r="E168" s="31"/>
+      <c r="F168" s="31"/>
+      <c r="G168" s="31"/>
+      <c r="H168" s="31"/>
+      <c r="I168" s="31"/>
+      <c r="J168" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="K168" s="31"/>
+      <c r="L168" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="M168" s="20"/>
+      <c r="N168" s="14"/>
+      <c r="O168" s="11"/>
+    </row>
+    <row r="169" spans="1:16" ht="41.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="14"/>
+      <c r="B169" s="14"/>
+      <c r="C169" s="22"/>
+      <c r="D169" s="22"/>
+      <c r="E169" s="22"/>
+      <c r="F169" s="22"/>
+      <c r="G169" s="22"/>
+      <c r="H169" s="22"/>
+      <c r="I169" s="22"/>
+      <c r="J169" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="K169" s="25"/>
+      <c r="L169" s="22"/>
+      <c r="M169" s="22"/>
+      <c r="N169" s="14"/>
+      <c r="O169" s="11"/>
+    </row>
+    <row r="170" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="23">
+        <v>2</v>
+      </c>
+      <c r="B170" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C167" s="16" t="s">
+      <c r="C170" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="D167" s="16"/>
-      <c r="E167" s="16"/>
-      <c r="F167" s="16"/>
-      <c r="G167" s="16"/>
-      <c r="H167" s="16"/>
-      <c r="I167" s="16"/>
-      <c r="J167" s="16" t="s">
+      <c r="D170" s="26"/>
+      <c r="E170" s="26"/>
+      <c r="F170" s="26"/>
+      <c r="G170" s="26"/>
+      <c r="H170" s="26"/>
+      <c r="I170" s="26"/>
+      <c r="J170" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="K167" s="16"/>
-      <c r="L167" s="16" t="s">
+      <c r="K170" s="15"/>
+      <c r="L170" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="M167" s="16"/>
-      <c r="N167" s="9" t="s">
+      <c r="M170" s="15"/>
+      <c r="N170" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O167" s="9"/>
-    </row>
-    <row r="168" spans="1:16" ht="41.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="10"/>
-      <c r="B168" s="10"/>
-      <c r="C168" s="18" t="s">
+      <c r="O170" s="13"/>
+    </row>
+    <row r="171" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="14"/>
+      <c r="B171" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D168" s="18"/>
-      <c r="E168" s="18"/>
-      <c r="F168" s="18"/>
-      <c r="G168" s="18"/>
-      <c r="H168" s="18"/>
-      <c r="I168" s="18"/>
-      <c r="J168" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="K168" s="18"/>
-      <c r="L168" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="M168" s="12"/>
-      <c r="N168" s="10"/>
-      <c r="O168" s="11"/>
-    </row>
-    <row r="169" spans="1:16" ht="41.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="10"/>
-      <c r="B169" s="10"/>
-      <c r="C169" s="14"/>
-      <c r="D169" s="14"/>
-      <c r="E169" s="14"/>
-      <c r="F169" s="14"/>
-      <c r="G169" s="14"/>
-      <c r="H169" s="14"/>
-      <c r="I169" s="14"/>
-      <c r="J169" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="K169" s="19"/>
-      <c r="L169" s="14"/>
-      <c r="M169" s="14"/>
-      <c r="N169" s="10"/>
-      <c r="O169" s="11"/>
-    </row>
-    <row r="170" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="15">
-        <v>2</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C170" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="D170" s="17"/>
-      <c r="E170" s="17"/>
-      <c r="F170" s="17"/>
-      <c r="G170" s="17"/>
-      <c r="H170" s="17"/>
-      <c r="I170" s="17"/>
-      <c r="J170" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="K170" s="16"/>
-      <c r="L170" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="M170" s="16"/>
-      <c r="N170" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="O170" s="9"/>
-    </row>
-    <row r="171" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="10"/>
-      <c r="B171" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C171" s="10"/>
+      <c r="C171" s="14"/>
       <c r="D171" s="11"/>
       <c r="E171" s="11"/>
       <c r="F171" s="11"/>
       <c r="G171" s="11"/>
       <c r="H171" s="11"/>
       <c r="I171" s="11"/>
-      <c r="J171" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="K171" s="12"/>
-      <c r="L171" s="12" t="s">
+      <c r="J171" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="K171" s="20"/>
+      <c r="L171" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="M171" s="12"/>
-      <c r="N171" s="10"/>
+      <c r="M171" s="20"/>
+      <c r="N171" s="14"/>
       <c r="O171" s="11"/>
     </row>
     <row r="172" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="10"/>
+      <c r="A172" s="14"/>
       <c r="B172" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C172" s="10"/>
+        <v>135</v>
+      </c>
+      <c r="C172" s="14"/>
       <c r="D172" s="11"/>
       <c r="E172" s="11"/>
       <c r="F172" s="11"/>
       <c r="G172" s="11"/>
       <c r="H172" s="11"/>
       <c r="I172" s="11"/>
-      <c r="J172" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="K172" s="12"/>
-      <c r="L172" s="13"/>
-      <c r="M172" s="13"/>
-      <c r="N172" s="10"/>
+      <c r="J172" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="K172" s="20"/>
+      <c r="L172" s="21"/>
+      <c r="M172" s="21"/>
+      <c r="N172" s="14"/>
       <c r="O172" s="11"/>
     </row>
     <row r="173" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="10"/>
+      <c r="A173" s="14"/>
       <c r="B173" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C173" s="10"/>
+        <v>137</v>
+      </c>
+      <c r="C173" s="14"/>
       <c r="D173" s="11"/>
       <c r="E173" s="11"/>
       <c r="F173" s="11"/>
       <c r="G173" s="11"/>
       <c r="H173" s="11"/>
       <c r="I173" s="11"/>
-      <c r="J173" s="13"/>
-      <c r="K173" s="13"/>
-      <c r="L173" s="13"/>
-      <c r="M173" s="13"/>
-      <c r="N173" s="10"/>
+      <c r="J173" s="21"/>
+      <c r="K173" s="21"/>
+      <c r="L173" s="21"/>
+      <c r="M173" s="21"/>
+      <c r="N173" s="14"/>
       <c r="O173" s="11"/>
     </row>
     <row r="174" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="10"/>
+      <c r="A174" s="14"/>
       <c r="B174" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C174" s="10"/>
+        <v>138</v>
+      </c>
+      <c r="C174" s="14"/>
       <c r="D174" s="11"/>
       <c r="E174" s="11"/>
       <c r="F174" s="11"/>
       <c r="G174" s="11"/>
       <c r="H174" s="11"/>
       <c r="I174" s="11"/>
-      <c r="J174" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="K174" s="12"/>
-      <c r="L174" s="13"/>
-      <c r="M174" s="13"/>
-      <c r="N174" s="10"/>
+      <c r="J174" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="K174" s="20"/>
+      <c r="L174" s="21"/>
+      <c r="M174" s="21"/>
+      <c r="N174" s="14"/>
       <c r="O174" s="11"/>
     </row>
     <row r="175" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="10"/>
+      <c r="A175" s="14"/>
       <c r="B175" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C175" s="10"/>
+      <c r="C175" s="14"/>
       <c r="D175" s="11"/>
       <c r="E175" s="11"/>
       <c r="F175" s="11"/>
       <c r="G175" s="11"/>
       <c r="H175" s="11"/>
       <c r="I175" s="11"/>
-      <c r="J175" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="K175" s="12"/>
-      <c r="L175" s="13"/>
-      <c r="M175" s="13"/>
-      <c r="N175" s="10"/>
+      <c r="J175" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="K175" s="20"/>
+      <c r="L175" s="21"/>
+      <c r="M175" s="21"/>
+      <c r="N175" s="14"/>
       <c r="O175" s="11"/>
     </row>
     <row r="176" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="10"/>
+      <c r="A176" s="14"/>
       <c r="B176" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C176" s="10"/>
+        <v>141</v>
+      </c>
+      <c r="C176" s="14"/>
       <c r="D176" s="11"/>
       <c r="E176" s="11"/>
       <c r="F176" s="11"/>
       <c r="G176" s="11"/>
       <c r="H176" s="11"/>
       <c r="I176" s="11"/>
-      <c r="J176" s="14"/>
-      <c r="K176" s="14"/>
-      <c r="L176" s="14"/>
-      <c r="M176" s="14"/>
-      <c r="N176" s="10"/>
+      <c r="J176" s="22"/>
+      <c r="K176" s="22"/>
+      <c r="L176" s="22"/>
+      <c r="M176" s="22"/>
+      <c r="N176" s="14"/>
       <c r="O176" s="11"/>
     </row>
     <row r="177" spans="1:16" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B177" s="8"/>
-      <c r="C177" s="8"/>
-      <c r="D177" s="8"/>
-      <c r="E177" s="8"/>
-      <c r="F177" s="8"/>
-      <c r="G177" s="8"/>
-      <c r="H177" s="8"/>
-      <c r="I177" s="8"/>
-      <c r="J177" s="8"/>
-      <c r="K177" s="8"/>
-      <c r="L177" s="8"/>
-      <c r="M177" s="8"/>
-      <c r="N177" s="8"/>
-      <c r="O177" s="8"/>
-      <c r="P177" s="8"/>
+      <c r="A177" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="B177" s="35"/>
+      <c r="C177" s="35"/>
+      <c r="D177" s="35"/>
+      <c r="E177" s="35"/>
+      <c r="F177" s="35"/>
+      <c r="G177" s="35"/>
+      <c r="H177" s="35"/>
+      <c r="I177" s="35"/>
+      <c r="J177" s="35"/>
+      <c r="K177" s="35"/>
+      <c r="L177" s="35"/>
+      <c r="M177" s="35"/>
+      <c r="N177" s="35"/>
+      <c r="O177" s="35"/>
+      <c r="P177" s="35"/>
     </row>
     <row r="178" spans="1:16" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="15">
+      <c r="A178" s="23">
         <v>3</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C178" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="D178" s="16"/>
-      <c r="E178" s="16"/>
-      <c r="F178" s="16"/>
-      <c r="G178" s="16"/>
-      <c r="H178" s="16"/>
-      <c r="I178" s="16"/>
-      <c r="J178" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="K178" s="17"/>
-      <c r="L178" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C178" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D178" s="15"/>
+      <c r="E178" s="15"/>
+      <c r="F178" s="15"/>
+      <c r="G178" s="15"/>
+      <c r="H178" s="15"/>
+      <c r="I178" s="15"/>
+      <c r="J178" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="K178" s="26"/>
+      <c r="L178" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="M178" s="16"/>
-      <c r="N178" s="9" t="s">
+      <c r="M178" s="15"/>
+      <c r="N178" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O178" s="9"/>
+      <c r="O178" s="13"/>
     </row>
     <row r="179" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="10"/>
+      <c r="A179" s="14"/>
       <c r="B179" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C179" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="D179" s="12"/>
-      <c r="E179" s="12"/>
-      <c r="F179" s="12"/>
-      <c r="G179" s="12"/>
-      <c r="H179" s="12"/>
-      <c r="I179" s="12"/>
-      <c r="J179" s="10"/>
+        <v>133</v>
+      </c>
+      <c r="C179" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="D179" s="20"/>
+      <c r="E179" s="20"/>
+      <c r="F179" s="20"/>
+      <c r="G179" s="20"/>
+      <c r="H179" s="20"/>
+      <c r="I179" s="20"/>
+      <c r="J179" s="14"/>
       <c r="K179" s="11"/>
-      <c r="L179" s="12" t="s">
+      <c r="L179" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="M179" s="12"/>
-      <c r="N179" s="10"/>
+      <c r="M179" s="20"/>
+      <c r="N179" s="14"/>
       <c r="O179" s="11"/>
     </row>
     <row r="180" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="10"/>
+      <c r="A180" s="14"/>
       <c r="B180" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C180" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="D180" s="12"/>
-      <c r="E180" s="12"/>
-      <c r="F180" s="12"/>
-      <c r="G180" s="12"/>
-      <c r="H180" s="12"/>
-      <c r="I180" s="12"/>
-      <c r="J180" s="10"/>
+        <v>135</v>
+      </c>
+      <c r="C180" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="D180" s="20"/>
+      <c r="E180" s="20"/>
+      <c r="F180" s="20"/>
+      <c r="G180" s="20"/>
+      <c r="H180" s="20"/>
+      <c r="I180" s="20"/>
+      <c r="J180" s="14"/>
       <c r="K180" s="11"/>
-      <c r="L180" s="13"/>
-      <c r="M180" s="13"/>
-      <c r="N180" s="10"/>
+      <c r="L180" s="21"/>
+      <c r="M180" s="21"/>
+      <c r="N180" s="14"/>
       <c r="O180" s="11"/>
     </row>
     <row r="181" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="10"/>
+      <c r="A181" s="14"/>
       <c r="B181" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C181" s="13"/>
-      <c r="D181" s="13"/>
-      <c r="E181" s="13"/>
-      <c r="F181" s="13"/>
-      <c r="G181" s="13"/>
-      <c r="H181" s="13"/>
-      <c r="I181" s="13"/>
-      <c r="J181" s="10"/>
+        <v>146</v>
+      </c>
+      <c r="C181" s="21"/>
+      <c r="D181" s="21"/>
+      <c r="E181" s="21"/>
+      <c r="F181" s="21"/>
+      <c r="G181" s="21"/>
+      <c r="H181" s="21"/>
+      <c r="I181" s="21"/>
+      <c r="J181" s="14"/>
       <c r="K181" s="11"/>
-      <c r="L181" s="13"/>
-      <c r="M181" s="13"/>
-      <c r="N181" s="10"/>
+      <c r="L181" s="21"/>
+      <c r="M181" s="21"/>
+      <c r="N181" s="14"/>
       <c r="O181" s="11"/>
     </row>
     <row r="182" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="10"/>
+      <c r="A182" s="14"/>
       <c r="B182" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C182" s="13"/>
-      <c r="D182" s="13"/>
-      <c r="E182" s="13"/>
-      <c r="F182" s="13"/>
-      <c r="G182" s="13"/>
-      <c r="H182" s="13"/>
-      <c r="I182" s="13"/>
-      <c r="J182" s="10"/>
+      <c r="C182" s="21"/>
+      <c r="D182" s="21"/>
+      <c r="E182" s="21"/>
+      <c r="F182" s="21"/>
+      <c r="G182" s="21"/>
+      <c r="H182" s="21"/>
+      <c r="I182" s="21"/>
+      <c r="J182" s="14"/>
       <c r="K182" s="11"/>
-      <c r="L182" s="13"/>
-      <c r="M182" s="13"/>
-      <c r="N182" s="10"/>
+      <c r="L182" s="21"/>
+      <c r="M182" s="21"/>
+      <c r="N182" s="14"/>
       <c r="O182" s="11"/>
     </row>
     <row r="183" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="10"/>
+      <c r="A183" s="14"/>
       <c r="B183" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C183" s="14"/>
-      <c r="D183" s="14"/>
-      <c r="E183" s="14"/>
-      <c r="F183" s="14"/>
-      <c r="G183" s="14"/>
-      <c r="H183" s="14"/>
-      <c r="I183" s="14"/>
-      <c r="J183" s="10"/>
+        <v>141</v>
+      </c>
+      <c r="C183" s="22"/>
+      <c r="D183" s="22"/>
+      <c r="E183" s="22"/>
+      <c r="F183" s="22"/>
+      <c r="G183" s="22"/>
+      <c r="H183" s="22"/>
+      <c r="I183" s="22"/>
+      <c r="J183" s="14"/>
       <c r="K183" s="11"/>
-      <c r="L183" s="14"/>
-      <c r="M183" s="14"/>
-      <c r="N183" s="10"/>
+      <c r="L183" s="22"/>
+      <c r="M183" s="22"/>
+      <c r="N183" s="14"/>
       <c r="O183" s="11"/>
     </row>
     <row r="184" spans="1:16" ht="62.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="B184" s="20"/>
-      <c r="C184" s="20"/>
-      <c r="D184" s="20"/>
-      <c r="E184" s="20"/>
-      <c r="F184" s="20"/>
-      <c r="G184" s="20"/>
-      <c r="H184" s="20"/>
-      <c r="I184" s="20"/>
-      <c r="J184" s="20"/>
-      <c r="K184" s="20"/>
-      <c r="L184" s="20"/>
-      <c r="M184" s="20"/>
-      <c r="N184" s="20"/>
-      <c r="O184" s="20"/>
-      <c r="P184" s="20"/>
+      <c r="A184" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="B184" s="34"/>
+      <c r="C184" s="34"/>
+      <c r="D184" s="34"/>
+      <c r="E184" s="34"/>
+      <c r="F184" s="34"/>
+      <c r="G184" s="34"/>
+      <c r="H184" s="34"/>
+      <c r="I184" s="34"/>
+      <c r="J184" s="34"/>
+      <c r="K184" s="34"/>
+      <c r="L184" s="34"/>
+      <c r="M184" s="34"/>
+      <c r="N184" s="34"/>
+      <c r="O184" s="34"/>
+      <c r="P184" s="34"/>
     </row>
     <row r="185" spans="1:16" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="9" t="s">
+      <c r="A185" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C185" s="21" t="s">
+      <c r="C185" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D185" s="21"/>
-      <c r="E185" s="21"/>
-      <c r="F185" s="21"/>
-      <c r="G185" s="21"/>
-      <c r="H185" s="21"/>
-      <c r="I185" s="21"/>
-      <c r="J185" s="9" t="s">
+      <c r="D185" s="16"/>
+      <c r="E185" s="16"/>
+      <c r="F185" s="16"/>
+      <c r="G185" s="16"/>
+      <c r="H185" s="16"/>
+      <c r="I185" s="16"/>
+      <c r="J185" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K185" s="9"/>
-      <c r="L185" s="16" t="s">
+      <c r="K185" s="13"/>
+      <c r="L185" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="M185" s="16"/>
-      <c r="N185" s="9" t="s">
+      <c r="M185" s="15"/>
+      <c r="N185" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="O185" s="9"/>
+      <c r="O185" s="13"/>
     </row>
     <row r="186" spans="1:16" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="10"/>
+      <c r="A186" s="14"/>
       <c r="B186" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C186" s="10"/>
+      <c r="C186" s="14"/>
       <c r="D186" s="11"/>
       <c r="E186" s="11"/>
       <c r="F186" s="11"/>
       <c r="G186" s="11"/>
       <c r="H186" s="11"/>
       <c r="I186" s="11"/>
-      <c r="J186" s="10"/>
+      <c r="J186" s="14"/>
       <c r="K186" s="11"/>
-      <c r="L186" s="22" t="s">
+      <c r="L186" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="M186" s="22"/>
-      <c r="N186" s="10"/>
+      <c r="M186" s="18"/>
+      <c r="N186" s="14"/>
       <c r="O186" s="11"/>
     </row>
     <row r="187" spans="1:16" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="15">
+      <c r="A187" s="23">
         <v>1</v>
       </c>
-      <c r="B187" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="C187" s="16" t="s">
+      <c r="B187" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="C187" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D187" s="15"/>
+      <c r="E187" s="15"/>
+      <c r="F187" s="15"/>
+      <c r="G187" s="15"/>
+      <c r="H187" s="15"/>
+      <c r="I187" s="15"/>
+      <c r="J187" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K187" s="15"/>
+      <c r="L187" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="M187" s="15"/>
+      <c r="N187" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="O187" s="13"/>
+    </row>
+    <row r="188" spans="1:16" ht="41.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="14"/>
+      <c r="B188" s="14"/>
+      <c r="C188" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="D188" s="31"/>
+      <c r="E188" s="31"/>
+      <c r="F188" s="31"/>
+      <c r="G188" s="31"/>
+      <c r="H188" s="31"/>
+      <c r="I188" s="31"/>
+      <c r="J188" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="K188" s="31"/>
+      <c r="L188" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="M188" s="20"/>
+      <c r="N188" s="14"/>
+      <c r="O188" s="11"/>
+    </row>
+    <row r="189" spans="1:16" ht="41.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="14"/>
+      <c r="B189" s="14"/>
+      <c r="C189" s="22"/>
+      <c r="D189" s="22"/>
+      <c r="E189" s="22"/>
+      <c r="F189" s="22"/>
+      <c r="G189" s="22"/>
+      <c r="H189" s="22"/>
+      <c r="I189" s="22"/>
+      <c r="J189" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="K189" s="25"/>
+      <c r="L189" s="22"/>
+      <c r="M189" s="22"/>
+      <c r="N189" s="14"/>
+      <c r="O189" s="11"/>
+    </row>
+    <row r="190" spans="1:16" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="23">
+        <v>2</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C190" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="D187" s="16"/>
-      <c r="E187" s="16"/>
-      <c r="F187" s="16"/>
-      <c r="G187" s="16"/>
-      <c r="H187" s="16"/>
-      <c r="I187" s="16"/>
-      <c r="J187" s="16" t="s">
+      <c r="D190" s="26"/>
+      <c r="E190" s="26"/>
+      <c r="F190" s="26"/>
+      <c r="G190" s="26"/>
+      <c r="H190" s="26"/>
+      <c r="I190" s="26"/>
+      <c r="J190" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="K187" s="16"/>
-      <c r="L187" s="16" t="s">
+      <c r="K190" s="15"/>
+      <c r="L190" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="M187" s="16"/>
-      <c r="N187" s="9" t="s">
+      <c r="M190" s="15"/>
+      <c r="N190" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O187" s="9"/>
-    </row>
-    <row r="188" spans="1:16" ht="41.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="10"/>
-      <c r="B188" s="10"/>
-      <c r="C188" s="18" t="s">
+      <c r="O190" s="13"/>
+    </row>
+    <row r="191" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="14"/>
+      <c r="B191" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D188" s="18"/>
-      <c r="E188" s="18"/>
-      <c r="F188" s="18"/>
-      <c r="G188" s="18"/>
-      <c r="H188" s="18"/>
-      <c r="I188" s="18"/>
-      <c r="J188" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="K188" s="18"/>
-      <c r="L188" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="M188" s="12"/>
-      <c r="N188" s="10"/>
-      <c r="O188" s="11"/>
-    </row>
-    <row r="189" spans="1:16" ht="41.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="10"/>
-      <c r="B189" s="10"/>
-      <c r="C189" s="14"/>
-      <c r="D189" s="14"/>
-      <c r="E189" s="14"/>
-      <c r="F189" s="14"/>
-      <c r="G189" s="14"/>
-      <c r="H189" s="14"/>
-      <c r="I189" s="14"/>
-      <c r="J189" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="K189" s="19"/>
-      <c r="L189" s="14"/>
-      <c r="M189" s="14"/>
-      <c r="N189" s="10"/>
-      <c r="O189" s="11"/>
-    </row>
-    <row r="190" spans="1:16" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="15">
-        <v>2</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C190" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="D190" s="17"/>
-      <c r="E190" s="17"/>
-      <c r="F190" s="17"/>
-      <c r="G190" s="17"/>
-      <c r="H190" s="17"/>
-      <c r="I190" s="17"/>
-      <c r="J190" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="K190" s="16"/>
-      <c r="L190" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="M190" s="16"/>
-      <c r="N190" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="O190" s="9"/>
-    </row>
-    <row r="191" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="10"/>
-      <c r="B191" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C191" s="10"/>
+      <c r="C191" s="14"/>
       <c r="D191" s="11"/>
       <c r="E191" s="11"/>
       <c r="F191" s="11"/>
       <c r="G191" s="11"/>
       <c r="H191" s="11"/>
       <c r="I191" s="11"/>
-      <c r="J191" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="K191" s="12"/>
-      <c r="L191" s="12" t="s">
+      <c r="J191" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="K191" s="20"/>
+      <c r="L191" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="M191" s="12"/>
-      <c r="N191" s="10"/>
+      <c r="M191" s="20"/>
+      <c r="N191" s="14"/>
       <c r="O191" s="11"/>
     </row>
     <row r="192" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="10"/>
+      <c r="A192" s="14"/>
       <c r="B192" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C192" s="10"/>
+        <v>135</v>
+      </c>
+      <c r="C192" s="14"/>
       <c r="D192" s="11"/>
       <c r="E192" s="11"/>
       <c r="F192" s="11"/>
       <c r="G192" s="11"/>
       <c r="H192" s="11"/>
       <c r="I192" s="11"/>
-      <c r="J192" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="K192" s="12"/>
-      <c r="L192" s="13"/>
-      <c r="M192" s="13"/>
-      <c r="N192" s="10"/>
+      <c r="J192" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="K192" s="20"/>
+      <c r="L192" s="21"/>
+      <c r="M192" s="21"/>
+      <c r="N192" s="14"/>
       <c r="O192" s="11"/>
     </row>
     <row r="193" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="10"/>
+      <c r="A193" s="14"/>
       <c r="B193" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C193" s="10"/>
+        <v>137</v>
+      </c>
+      <c r="C193" s="14"/>
       <c r="D193" s="11"/>
       <c r="E193" s="11"/>
       <c r="F193" s="11"/>
       <c r="G193" s="11"/>
       <c r="H193" s="11"/>
       <c r="I193" s="11"/>
-      <c r="J193" s="13"/>
-      <c r="K193" s="13"/>
-      <c r="L193" s="13"/>
-      <c r="M193" s="13"/>
-      <c r="N193" s="10"/>
+      <c r="J193" s="21"/>
+      <c r="K193" s="21"/>
+      <c r="L193" s="21"/>
+      <c r="M193" s="21"/>
+      <c r="N193" s="14"/>
       <c r="O193" s="11"/>
     </row>
     <row r="194" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="10"/>
+      <c r="A194" s="14"/>
       <c r="B194" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C194" s="10"/>
+        <v>138</v>
+      </c>
+      <c r="C194" s="14"/>
       <c r="D194" s="11"/>
       <c r="E194" s="11"/>
       <c r="F194" s="11"/>
       <c r="G194" s="11"/>
       <c r="H194" s="11"/>
       <c r="I194" s="11"/>
-      <c r="J194" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="K194" s="12"/>
-      <c r="L194" s="13"/>
-      <c r="M194" s="13"/>
-      <c r="N194" s="10"/>
+      <c r="J194" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="K194" s="20"/>
+      <c r="L194" s="21"/>
+      <c r="M194" s="21"/>
+      <c r="N194" s="14"/>
       <c r="O194" s="11"/>
     </row>
     <row r="195" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="10"/>
+      <c r="A195" s="14"/>
       <c r="B195" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C195" s="10"/>
+      <c r="C195" s="14"/>
       <c r="D195" s="11"/>
       <c r="E195" s="11"/>
       <c r="F195" s="11"/>
       <c r="G195" s="11"/>
       <c r="H195" s="11"/>
       <c r="I195" s="11"/>
-      <c r="J195" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="K195" s="12"/>
-      <c r="L195" s="13"/>
-      <c r="M195" s="13"/>
-      <c r="N195" s="10"/>
+      <c r="J195" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="K195" s="20"/>
+      <c r="L195" s="21"/>
+      <c r="M195" s="21"/>
+      <c r="N195" s="14"/>
       <c r="O195" s="11"/>
     </row>
     <row r="196" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="10"/>
+      <c r="A196" s="14"/>
       <c r="B196" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C196" s="10"/>
+        <v>141</v>
+      </c>
+      <c r="C196" s="14"/>
       <c r="D196" s="11"/>
       <c r="E196" s="11"/>
       <c r="F196" s="11"/>
       <c r="G196" s="11"/>
       <c r="H196" s="11"/>
       <c r="I196" s="11"/>
-      <c r="J196" s="14"/>
-      <c r="K196" s="14"/>
-      <c r="L196" s="14"/>
-      <c r="M196" s="14"/>
-      <c r="N196" s="10"/>
+      <c r="J196" s="22"/>
+      <c r="K196" s="22"/>
+      <c r="L196" s="22"/>
+      <c r="M196" s="22"/>
+      <c r="N196" s="14"/>
       <c r="O196" s="11"/>
     </row>
     <row r="197" spans="1:16" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="15">
+      <c r="A197" s="23">
         <v>3</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C197" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="D197" s="16"/>
-      <c r="E197" s="16"/>
-      <c r="F197" s="16"/>
-      <c r="G197" s="16"/>
-      <c r="H197" s="16"/>
-      <c r="I197" s="16"/>
-      <c r="J197" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="K197" s="17"/>
-      <c r="L197" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C197" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D197" s="15"/>
+      <c r="E197" s="15"/>
+      <c r="F197" s="15"/>
+      <c r="G197" s="15"/>
+      <c r="H197" s="15"/>
+      <c r="I197" s="15"/>
+      <c r="J197" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="K197" s="26"/>
+      <c r="L197" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="M197" s="16"/>
-      <c r="N197" s="9" t="s">
+      <c r="M197" s="15"/>
+      <c r="N197" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O197" s="9"/>
+      <c r="O197" s="13"/>
     </row>
     <row r="198" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="10"/>
+      <c r="A198" s="14"/>
       <c r="B198" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C198" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="D198" s="12"/>
-      <c r="E198" s="12"/>
-      <c r="F198" s="12"/>
-      <c r="G198" s="12"/>
-      <c r="H198" s="12"/>
-      <c r="I198" s="12"/>
-      <c r="J198" s="10"/>
+        <v>133</v>
+      </c>
+      <c r="C198" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="D198" s="20"/>
+      <c r="E198" s="20"/>
+      <c r="F198" s="20"/>
+      <c r="G198" s="20"/>
+      <c r="H198" s="20"/>
+      <c r="I198" s="20"/>
+      <c r="J198" s="14"/>
       <c r="K198" s="11"/>
-      <c r="L198" s="12" t="s">
+      <c r="L198" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="M198" s="12"/>
-      <c r="N198" s="10"/>
+      <c r="M198" s="20"/>
+      <c r="N198" s="14"/>
       <c r="O198" s="11"/>
     </row>
     <row r="199" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="10"/>
+      <c r="A199" s="14"/>
       <c r="B199" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C199" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="D199" s="12"/>
-      <c r="E199" s="12"/>
-      <c r="F199" s="12"/>
-      <c r="G199" s="12"/>
-      <c r="H199" s="12"/>
-      <c r="I199" s="12"/>
-      <c r="J199" s="10"/>
+        <v>135</v>
+      </c>
+      <c r="C199" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="D199" s="20"/>
+      <c r="E199" s="20"/>
+      <c r="F199" s="20"/>
+      <c r="G199" s="20"/>
+      <c r="H199" s="20"/>
+      <c r="I199" s="20"/>
+      <c r="J199" s="14"/>
       <c r="K199" s="11"/>
-      <c r="L199" s="13"/>
-      <c r="M199" s="13"/>
-      <c r="N199" s="10"/>
+      <c r="L199" s="21"/>
+      <c r="M199" s="21"/>
+      <c r="N199" s="14"/>
       <c r="O199" s="11"/>
     </row>
     <row r="200" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="10"/>
+      <c r="A200" s="14"/>
       <c r="B200" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C200" s="13"/>
-      <c r="D200" s="13"/>
-      <c r="E200" s="13"/>
-      <c r="F200" s="13"/>
-      <c r="G200" s="13"/>
-      <c r="H200" s="13"/>
-      <c r="I200" s="13"/>
-      <c r="J200" s="10"/>
+        <v>146</v>
+      </c>
+      <c r="C200" s="21"/>
+      <c r="D200" s="21"/>
+      <c r="E200" s="21"/>
+      <c r="F200" s="21"/>
+      <c r="G200" s="21"/>
+      <c r="H200" s="21"/>
+      <c r="I200" s="21"/>
+      <c r="J200" s="14"/>
       <c r="K200" s="11"/>
-      <c r="L200" s="13"/>
-      <c r="M200" s="13"/>
-      <c r="N200" s="10"/>
+      <c r="L200" s="21"/>
+      <c r="M200" s="21"/>
+      <c r="N200" s="14"/>
       <c r="O200" s="11"/>
     </row>
     <row r="201" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="10"/>
+      <c r="A201" s="14"/>
       <c r="B201" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C201" s="13"/>
-      <c r="D201" s="13"/>
-      <c r="E201" s="13"/>
-      <c r="F201" s="13"/>
-      <c r="G201" s="13"/>
-      <c r="H201" s="13"/>
-      <c r="I201" s="13"/>
-      <c r="J201" s="10"/>
+      <c r="C201" s="21"/>
+      <c r="D201" s="21"/>
+      <c r="E201" s="21"/>
+      <c r="F201" s="21"/>
+      <c r="G201" s="21"/>
+      <c r="H201" s="21"/>
+      <c r="I201" s="21"/>
+      <c r="J201" s="14"/>
       <c r="K201" s="11"/>
-      <c r="L201" s="13"/>
-      <c r="M201" s="13"/>
-      <c r="N201" s="10"/>
+      <c r="L201" s="21"/>
+      <c r="M201" s="21"/>
+      <c r="N201" s="14"/>
       <c r="O201" s="11"/>
     </row>
     <row r="202" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="10"/>
+      <c r="A202" s="14"/>
       <c r="B202" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C202" s="14"/>
-      <c r="D202" s="14"/>
-      <c r="E202" s="14"/>
-      <c r="F202" s="14"/>
-      <c r="G202" s="14"/>
-      <c r="H202" s="14"/>
-      <c r="I202" s="14"/>
-      <c r="J202" s="10"/>
+        <v>141</v>
+      </c>
+      <c r="C202" s="22"/>
+      <c r="D202" s="22"/>
+      <c r="E202" s="22"/>
+      <c r="F202" s="22"/>
+      <c r="G202" s="22"/>
+      <c r="H202" s="22"/>
+      <c r="I202" s="22"/>
+      <c r="J202" s="14"/>
       <c r="K202" s="11"/>
-      <c r="L202" s="14"/>
-      <c r="M202" s="14"/>
-      <c r="N202" s="10"/>
+      <c r="L202" s="22"/>
+      <c r="M202" s="22"/>
+      <c r="N202" s="14"/>
       <c r="O202" s="11"/>
     </row>
     <row r="203" spans="1:16" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B203" s="8"/>
-      <c r="C203" s="8"/>
-      <c r="D203" s="8"/>
-      <c r="E203" s="8"/>
-      <c r="F203" s="8"/>
-      <c r="G203" s="8"/>
-      <c r="H203" s="8"/>
-      <c r="I203" s="8"/>
-      <c r="J203" s="8"/>
-      <c r="K203" s="8"/>
-      <c r="L203" s="8"/>
-      <c r="M203" s="8"/>
-      <c r="N203" s="8"/>
-      <c r="O203" s="8"/>
-      <c r="P203" s="8"/>
+      <c r="A203" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="B203" s="35"/>
+      <c r="C203" s="35"/>
+      <c r="D203" s="35"/>
+      <c r="E203" s="35"/>
+      <c r="F203" s="35"/>
+      <c r="G203" s="35"/>
+      <c r="H203" s="35"/>
+      <c r="I203" s="35"/>
+      <c r="J203" s="35"/>
+      <c r="K203" s="35"/>
+      <c r="L203" s="35"/>
+      <c r="M203" s="35"/>
+      <c r="N203" s="35"/>
+      <c r="O203" s="35"/>
+      <c r="P203" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="716">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:Q2"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:Q3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:J5"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:O5"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="N6:O10"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N11:O15"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="N16:O20"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="K20:M20"/>
+  <mergeCells count="712">
+    <mergeCell ref="A197:A202"/>
+    <mergeCell ref="C197:I197"/>
+    <mergeCell ref="J197:K202"/>
+    <mergeCell ref="L197:M197"/>
+    <mergeCell ref="A190:A196"/>
+    <mergeCell ref="C190:I196"/>
+    <mergeCell ref="J190:K190"/>
+    <mergeCell ref="L190:M190"/>
+    <mergeCell ref="A203:P203"/>
+    <mergeCell ref="N197:O202"/>
+    <mergeCell ref="C198:I198"/>
+    <mergeCell ref="L198:M198"/>
+    <mergeCell ref="C199:I199"/>
+    <mergeCell ref="L199:M199"/>
+    <mergeCell ref="C200:I200"/>
+    <mergeCell ref="L200:M200"/>
+    <mergeCell ref="C201:I201"/>
+    <mergeCell ref="L201:M201"/>
+    <mergeCell ref="C202:I202"/>
+    <mergeCell ref="L202:M202"/>
+    <mergeCell ref="N190:O196"/>
+    <mergeCell ref="J191:K191"/>
+    <mergeCell ref="L191:M191"/>
+    <mergeCell ref="J192:K192"/>
+    <mergeCell ref="L192:M192"/>
+    <mergeCell ref="J193:K193"/>
+    <mergeCell ref="L193:M193"/>
+    <mergeCell ref="J194:K194"/>
+    <mergeCell ref="L194:M194"/>
+    <mergeCell ref="J195:K195"/>
+    <mergeCell ref="L195:M195"/>
+    <mergeCell ref="J196:K196"/>
+    <mergeCell ref="L196:M196"/>
+    <mergeCell ref="N187:O189"/>
+    <mergeCell ref="C188:I188"/>
+    <mergeCell ref="J188:K188"/>
+    <mergeCell ref="L188:M188"/>
+    <mergeCell ref="C189:I189"/>
+    <mergeCell ref="J189:K189"/>
+    <mergeCell ref="L189:M189"/>
+    <mergeCell ref="A187:A189"/>
+    <mergeCell ref="B187:B189"/>
+    <mergeCell ref="C187:I187"/>
+    <mergeCell ref="J187:K187"/>
+    <mergeCell ref="L187:M187"/>
+    <mergeCell ref="L183:M183"/>
+    <mergeCell ref="A184:P184"/>
+    <mergeCell ref="A185:A186"/>
+    <mergeCell ref="C185:I186"/>
+    <mergeCell ref="J185:K186"/>
+    <mergeCell ref="L185:M185"/>
+    <mergeCell ref="N185:O186"/>
+    <mergeCell ref="L186:M186"/>
+    <mergeCell ref="L176:M176"/>
+    <mergeCell ref="A177:P177"/>
+    <mergeCell ref="A178:A183"/>
+    <mergeCell ref="C178:I178"/>
+    <mergeCell ref="J178:K183"/>
+    <mergeCell ref="L178:M178"/>
+    <mergeCell ref="N178:O183"/>
+    <mergeCell ref="C179:I179"/>
+    <mergeCell ref="L179:M179"/>
+    <mergeCell ref="C180:I180"/>
+    <mergeCell ref="L180:M180"/>
+    <mergeCell ref="C181:I181"/>
+    <mergeCell ref="L181:M181"/>
+    <mergeCell ref="C182:I182"/>
+    <mergeCell ref="L182:M182"/>
+    <mergeCell ref="C183:I183"/>
+    <mergeCell ref="A170:A176"/>
+    <mergeCell ref="C170:I176"/>
+    <mergeCell ref="J170:K170"/>
+    <mergeCell ref="L170:M170"/>
+    <mergeCell ref="N170:O176"/>
+    <mergeCell ref="J171:K171"/>
+    <mergeCell ref="L171:M171"/>
+    <mergeCell ref="J172:K172"/>
+    <mergeCell ref="L172:M172"/>
+    <mergeCell ref="J173:K173"/>
+    <mergeCell ref="L173:M173"/>
+    <mergeCell ref="J174:K174"/>
+    <mergeCell ref="L174:M174"/>
+    <mergeCell ref="J175:K175"/>
+    <mergeCell ref="L175:M175"/>
+    <mergeCell ref="J176:K176"/>
+    <mergeCell ref="N167:O169"/>
+    <mergeCell ref="C168:I168"/>
+    <mergeCell ref="J168:K168"/>
+    <mergeCell ref="L168:M168"/>
+    <mergeCell ref="C169:I169"/>
+    <mergeCell ref="J169:K169"/>
+    <mergeCell ref="L169:M169"/>
+    <mergeCell ref="A167:A169"/>
+    <mergeCell ref="B167:B169"/>
+    <mergeCell ref="C167:I167"/>
+    <mergeCell ref="J167:K167"/>
+    <mergeCell ref="L167:M167"/>
+    <mergeCell ref="A162:G162"/>
+    <mergeCell ref="H162:P163"/>
+    <mergeCell ref="A163:G163"/>
+    <mergeCell ref="A164:P164"/>
+    <mergeCell ref="A165:A166"/>
+    <mergeCell ref="C165:I166"/>
+    <mergeCell ref="J165:K166"/>
+    <mergeCell ref="L165:M165"/>
+    <mergeCell ref="N165:O166"/>
+    <mergeCell ref="L166:M166"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="D161:G161"/>
+    <mergeCell ref="K161:M161"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="D158:G158"/>
+    <mergeCell ref="K158:M158"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="D159:G159"/>
+    <mergeCell ref="K159:M159"/>
+    <mergeCell ref="N144:O161"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="D145:G145"/>
+    <mergeCell ref="K145:M145"/>
+    <mergeCell ref="B146:C146"/>
+    <mergeCell ref="D146:G146"/>
+    <mergeCell ref="K146:M146"/>
+    <mergeCell ref="B147:C147"/>
+    <mergeCell ref="D147:G147"/>
+    <mergeCell ref="K147:M147"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="D148:G148"/>
+    <mergeCell ref="K148:M148"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="D149:G149"/>
+    <mergeCell ref="K149:M149"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="D156:G156"/>
+    <mergeCell ref="K156:M156"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="D157:G157"/>
+    <mergeCell ref="K157:M157"/>
+    <mergeCell ref="K153:M153"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="A144:A161"/>
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="D144:G144"/>
+    <mergeCell ref="H144:J161"/>
+    <mergeCell ref="K144:M144"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="D150:G150"/>
+    <mergeCell ref="K150:M150"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="D151:G151"/>
+    <mergeCell ref="K151:M151"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="D152:G152"/>
+    <mergeCell ref="K152:M152"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="D153:G153"/>
+    <mergeCell ref="D154:G154"/>
+    <mergeCell ref="K154:M154"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="D155:G155"/>
+    <mergeCell ref="K155:M155"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="D160:G160"/>
+    <mergeCell ref="K160:M160"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="D143:G143"/>
+    <mergeCell ref="H143:J143"/>
+    <mergeCell ref="K143:M143"/>
+    <mergeCell ref="N143:O143"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="D142:G142"/>
+    <mergeCell ref="H142:J142"/>
+    <mergeCell ref="K142:M142"/>
+    <mergeCell ref="N142:O142"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="D141:G141"/>
+    <mergeCell ref="H141:J141"/>
+    <mergeCell ref="K141:M141"/>
+    <mergeCell ref="N141:O141"/>
+    <mergeCell ref="B140:C140"/>
+    <mergeCell ref="D140:G140"/>
+    <mergeCell ref="H140:J140"/>
+    <mergeCell ref="K140:M140"/>
+    <mergeCell ref="N140:O140"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="D139:G139"/>
+    <mergeCell ref="H139:J139"/>
+    <mergeCell ref="K139:M139"/>
+    <mergeCell ref="N139:O139"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="D138:G138"/>
+    <mergeCell ref="H138:J138"/>
+    <mergeCell ref="K138:M138"/>
+    <mergeCell ref="N138:O138"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="D137:G137"/>
+    <mergeCell ref="H137:J137"/>
+    <mergeCell ref="K137:M137"/>
+    <mergeCell ref="N137:O137"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="D136:G136"/>
+    <mergeCell ref="H136:J136"/>
+    <mergeCell ref="K136:M136"/>
+    <mergeCell ref="N136:O136"/>
+    <mergeCell ref="B135:C135"/>
+    <mergeCell ref="D135:G135"/>
+    <mergeCell ref="H135:J135"/>
+    <mergeCell ref="K135:M135"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="D132:G132"/>
+    <mergeCell ref="H132:J132"/>
+    <mergeCell ref="K132:M132"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="D133:G133"/>
+    <mergeCell ref="H133:J133"/>
+    <mergeCell ref="K133:M133"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="D131:G131"/>
+    <mergeCell ref="H131:J131"/>
+    <mergeCell ref="K131:M131"/>
+    <mergeCell ref="N124:O134"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="D125:G125"/>
+    <mergeCell ref="H125:J125"/>
+    <mergeCell ref="K125:M125"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="D126:G126"/>
+    <mergeCell ref="H126:J126"/>
+    <mergeCell ref="K126:M126"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="D127:G127"/>
+    <mergeCell ref="H127:J127"/>
+    <mergeCell ref="K127:M127"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="D128:G128"/>
+    <mergeCell ref="H128:J128"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="D134:G134"/>
+    <mergeCell ref="H134:J134"/>
+    <mergeCell ref="K134:M134"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="D123:G123"/>
+    <mergeCell ref="H123:J123"/>
+    <mergeCell ref="K123:M123"/>
+    <mergeCell ref="A124:A134"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="D124:G124"/>
+    <mergeCell ref="H124:J124"/>
+    <mergeCell ref="K124:M124"/>
+    <mergeCell ref="K128:M128"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="D129:G129"/>
+    <mergeCell ref="H129:J129"/>
+    <mergeCell ref="K129:M129"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="D130:G130"/>
+    <mergeCell ref="A104:A123"/>
+    <mergeCell ref="K109:M109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="D110:G110"/>
+    <mergeCell ref="H110:J110"/>
+    <mergeCell ref="K110:M110"/>
+    <mergeCell ref="H130:J130"/>
+    <mergeCell ref="K130:M130"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="D121:G121"/>
+    <mergeCell ref="H121:J121"/>
+    <mergeCell ref="K121:M121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="D122:G122"/>
+    <mergeCell ref="H122:J122"/>
+    <mergeCell ref="K122:M122"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="D119:G119"/>
+    <mergeCell ref="H119:J119"/>
+    <mergeCell ref="K119:M119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="D120:G120"/>
+    <mergeCell ref="H120:J120"/>
+    <mergeCell ref="K120:M120"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="D117:G117"/>
+    <mergeCell ref="H117:J117"/>
+    <mergeCell ref="K117:M117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="D118:G118"/>
+    <mergeCell ref="H118:J118"/>
+    <mergeCell ref="K118:M118"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="D115:G115"/>
+    <mergeCell ref="H115:J115"/>
+    <mergeCell ref="K115:M115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="D116:G116"/>
+    <mergeCell ref="H116:J116"/>
+    <mergeCell ref="K116:M116"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="D113:G113"/>
+    <mergeCell ref="H113:J113"/>
+    <mergeCell ref="K113:M113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="D114:G114"/>
+    <mergeCell ref="H114:J114"/>
+    <mergeCell ref="K114:M114"/>
+    <mergeCell ref="H111:J111"/>
+    <mergeCell ref="K111:M111"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="D112:G112"/>
+    <mergeCell ref="H112:J112"/>
+    <mergeCell ref="K112:M112"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="D111:G111"/>
+    <mergeCell ref="N104:O123"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="D105:G105"/>
+    <mergeCell ref="H105:J105"/>
+    <mergeCell ref="K105:M105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="D106:G106"/>
+    <mergeCell ref="H106:J106"/>
+    <mergeCell ref="K106:M106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="D107:G107"/>
+    <mergeCell ref="H107:J107"/>
+    <mergeCell ref="K107:M107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="D108:G108"/>
+    <mergeCell ref="H108:J108"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="D104:G104"/>
+    <mergeCell ref="H104:J104"/>
+    <mergeCell ref="K104:M104"/>
+    <mergeCell ref="K108:M108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="D109:G109"/>
+    <mergeCell ref="H109:J109"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="D102:G102"/>
+    <mergeCell ref="H102:J102"/>
+    <mergeCell ref="K102:M102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="D103:G103"/>
+    <mergeCell ref="H103:J103"/>
+    <mergeCell ref="K103:M103"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="D100:G100"/>
+    <mergeCell ref="H100:J100"/>
+    <mergeCell ref="K100:M100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="D101:G101"/>
+    <mergeCell ref="H101:J101"/>
+    <mergeCell ref="K101:M101"/>
+    <mergeCell ref="H98:J98"/>
+    <mergeCell ref="K98:M98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="D99:G99"/>
+    <mergeCell ref="H99:J99"/>
+    <mergeCell ref="K99:M99"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D96:G96"/>
+    <mergeCell ref="H96:J96"/>
+    <mergeCell ref="K96:M96"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="D97:G97"/>
+    <mergeCell ref="H97:J97"/>
+    <mergeCell ref="K97:M97"/>
+    <mergeCell ref="N85:O103"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="D86:G86"/>
+    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="K86:M86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="D87:G87"/>
+    <mergeCell ref="H87:J87"/>
+    <mergeCell ref="K87:M87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="H88:J88"/>
+    <mergeCell ref="K88:M88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="D89:G89"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="D94:G94"/>
+    <mergeCell ref="H94:J94"/>
+    <mergeCell ref="K94:M94"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="D95:G95"/>
+    <mergeCell ref="H95:J95"/>
+    <mergeCell ref="K95:M95"/>
+    <mergeCell ref="A85:A103"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D85:G85"/>
+    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="K85:M85"/>
+    <mergeCell ref="K89:M89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:G90"/>
+    <mergeCell ref="H90:J90"/>
+    <mergeCell ref="K90:M90"/>
+    <mergeCell ref="D91:G91"/>
+    <mergeCell ref="H91:J91"/>
+    <mergeCell ref="K91:M91"/>
+    <mergeCell ref="D92:G92"/>
+    <mergeCell ref="H92:J92"/>
+    <mergeCell ref="K92:M92"/>
+    <mergeCell ref="D93:G93"/>
+    <mergeCell ref="H93:J93"/>
+    <mergeCell ref="K93:M93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="D98:G98"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:G84"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="K84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:G82"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="K82:M82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D83:G83"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="K83:M83"/>
+    <mergeCell ref="N67:O83"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:G68"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="K68:M68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:G69"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="K69:M69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:G70"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:G80"/>
+    <mergeCell ref="H80:J80"/>
+    <mergeCell ref="K80:M80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:G81"/>
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="K81:M81"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:G78"/>
+    <mergeCell ref="H78:J78"/>
+    <mergeCell ref="K78:M78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="D79:G79"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="K79:M79"/>
+    <mergeCell ref="K76:M76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:G77"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="K77:M77"/>
+    <mergeCell ref="H74:J74"/>
+    <mergeCell ref="K74:M74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:G75"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="K75:M75"/>
+    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="K70:M70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:G71"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="A67:A83"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:G67"/>
+    <mergeCell ref="H67:J67"/>
+    <mergeCell ref="K67:M67"/>
+    <mergeCell ref="K71:M71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D72:G72"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="K72:M72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="D73:G73"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="K73:M73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="D74:G74"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:G76"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="A62:H62"/>
+    <mergeCell ref="I62:Q63"/>
+    <mergeCell ref="A63:H63"/>
+    <mergeCell ref="A64:Q64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:G66"/>
+    <mergeCell ref="H65:J66"/>
+    <mergeCell ref="K65:M65"/>
+    <mergeCell ref="N65:O66"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="K66:M66"/>
+    <mergeCell ref="O57:P61"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:I58"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:I59"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:I57"/>
+    <mergeCell ref="J57:L61"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="O51:P56"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:I52"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:I53"/>
+    <mergeCell ref="J53:L53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:I54"/>
+    <mergeCell ref="J54:L54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:I55"/>
+    <mergeCell ref="J55:L55"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:I51"/>
+    <mergeCell ref="J51:L51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:I56"/>
+    <mergeCell ref="J56:L56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="O47:P50"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:I48"/>
+    <mergeCell ref="J48:L48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:I49"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:I50"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="O42:P46"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:I44"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:I45"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:I42"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="O37:P41"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:I39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:I41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:Q33"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A34:Q34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:I36"/>
+    <mergeCell ref="J35:L36"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:P36"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="F27:J31"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="N27:O31"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="K31:M31"/>
     <mergeCell ref="A21:A26"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="F21:J21"/>
@@ -14193,639 +14696,65 @@
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="F26:J26"/>
     <mergeCell ref="K26:M26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="F27:J31"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="N27:O31"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:Q33"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A34:Q34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:I36"/>
-    <mergeCell ref="J35:L36"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O35:P36"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="O37:P41"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:I39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:I41"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:I47"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="O42:P46"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:I44"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:I45"/>
-    <mergeCell ref="J45:L45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:I42"/>
-    <mergeCell ref="J51:L51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:I56"/>
-    <mergeCell ref="J56:L56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="O47:P50"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:I48"/>
-    <mergeCell ref="J48:L48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:I49"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:I50"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:I57"/>
-    <mergeCell ref="J57:L61"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="O51:P56"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:I52"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:I53"/>
-    <mergeCell ref="J53:L53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:I54"/>
-    <mergeCell ref="J54:L54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:I55"/>
-    <mergeCell ref="J55:L55"/>
-    <mergeCell ref="A51:A56"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:I51"/>
-    <mergeCell ref="O57:P61"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:I58"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:I59"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="A62:H62"/>
-    <mergeCell ref="I62:Q63"/>
-    <mergeCell ref="A63:H63"/>
-    <mergeCell ref="A64:Q64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:G66"/>
-    <mergeCell ref="H65:J66"/>
-    <mergeCell ref="K65:M65"/>
-    <mergeCell ref="N65:O66"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="K66:M66"/>
-    <mergeCell ref="H70:J70"/>
-    <mergeCell ref="K70:M70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="D71:G71"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="A67:A83"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:G67"/>
-    <mergeCell ref="H67:J67"/>
-    <mergeCell ref="K67:M67"/>
-    <mergeCell ref="K71:M71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="D72:G72"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="K72:M72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="D73:G73"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="K73:M73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="D74:G74"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:G76"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="K76:M76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="D77:G77"/>
-    <mergeCell ref="H77:J77"/>
-    <mergeCell ref="K77:M77"/>
-    <mergeCell ref="H74:J74"/>
-    <mergeCell ref="K74:M74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="D75:G75"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="K75:M75"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:G80"/>
-    <mergeCell ref="H80:J80"/>
-    <mergeCell ref="K80:M80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D81:G81"/>
-    <mergeCell ref="H81:J81"/>
-    <mergeCell ref="K81:M81"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="D78:G78"/>
-    <mergeCell ref="H78:J78"/>
-    <mergeCell ref="K78:M78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="D79:G79"/>
-    <mergeCell ref="H79:J79"/>
-    <mergeCell ref="K79:M79"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="D84:G84"/>
-    <mergeCell ref="H84:J84"/>
-    <mergeCell ref="K84:M84"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="D82:G82"/>
-    <mergeCell ref="H82:J82"/>
-    <mergeCell ref="K82:M82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="D83:G83"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="K83:M83"/>
-    <mergeCell ref="N67:O83"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:G68"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="K68:M68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:G69"/>
-    <mergeCell ref="H69:J69"/>
-    <mergeCell ref="K69:M69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:G70"/>
-    <mergeCell ref="A85:A103"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="D85:G85"/>
-    <mergeCell ref="H85:J85"/>
-    <mergeCell ref="K85:M85"/>
-    <mergeCell ref="K89:M89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="D90:G90"/>
-    <mergeCell ref="H90:J90"/>
-    <mergeCell ref="K90:M90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="D91:G91"/>
-    <mergeCell ref="H91:J91"/>
-    <mergeCell ref="K91:M91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="D92:G92"/>
-    <mergeCell ref="N85:O103"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="D86:G86"/>
-    <mergeCell ref="H86:J86"/>
-    <mergeCell ref="K86:M86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="D87:G87"/>
-    <mergeCell ref="H87:J87"/>
-    <mergeCell ref="K87:M87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="H88:J88"/>
-    <mergeCell ref="K88:M88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="D89:G89"/>
-    <mergeCell ref="H89:J89"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="D94:G94"/>
-    <mergeCell ref="H94:J94"/>
-    <mergeCell ref="K94:M94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="D95:G95"/>
-    <mergeCell ref="H95:J95"/>
-    <mergeCell ref="K95:M95"/>
-    <mergeCell ref="H92:J92"/>
-    <mergeCell ref="K92:M92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="D93:G93"/>
-    <mergeCell ref="H93:J93"/>
-    <mergeCell ref="K93:M93"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="D98:G98"/>
-    <mergeCell ref="H98:J98"/>
-    <mergeCell ref="K98:M98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="D99:G99"/>
-    <mergeCell ref="H99:J99"/>
-    <mergeCell ref="K99:M99"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="D96:G96"/>
-    <mergeCell ref="H96:J96"/>
-    <mergeCell ref="K96:M96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="D97:G97"/>
-    <mergeCell ref="H97:J97"/>
-    <mergeCell ref="K97:M97"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="D102:G102"/>
-    <mergeCell ref="H102:J102"/>
-    <mergeCell ref="K102:M102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="D103:G103"/>
-    <mergeCell ref="H103:J103"/>
-    <mergeCell ref="K103:M103"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="D100:G100"/>
-    <mergeCell ref="H100:J100"/>
-    <mergeCell ref="K100:M100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="D101:G101"/>
-    <mergeCell ref="H101:J101"/>
-    <mergeCell ref="K101:M101"/>
-    <mergeCell ref="N104:O123"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="D105:G105"/>
-    <mergeCell ref="H105:J105"/>
-    <mergeCell ref="K105:M105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="D106:G106"/>
-    <mergeCell ref="H106:J106"/>
-    <mergeCell ref="K106:M106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="D107:G107"/>
-    <mergeCell ref="H107:J107"/>
-    <mergeCell ref="K107:M107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="D108:G108"/>
-    <mergeCell ref="H108:J108"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="D104:G104"/>
-    <mergeCell ref="H104:J104"/>
-    <mergeCell ref="K104:M104"/>
-    <mergeCell ref="K108:M108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="D109:G109"/>
-    <mergeCell ref="H109:J109"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="D113:G113"/>
-    <mergeCell ref="H113:J113"/>
-    <mergeCell ref="K113:M113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="D114:G114"/>
-    <mergeCell ref="H114:J114"/>
-    <mergeCell ref="K114:M114"/>
-    <mergeCell ref="H111:J111"/>
-    <mergeCell ref="K111:M111"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="D112:G112"/>
-    <mergeCell ref="H112:J112"/>
-    <mergeCell ref="K112:M112"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="D111:G111"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="D117:G117"/>
-    <mergeCell ref="H117:J117"/>
-    <mergeCell ref="K117:M117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="D118:G118"/>
-    <mergeCell ref="H118:J118"/>
-    <mergeCell ref="K118:M118"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="D115:G115"/>
-    <mergeCell ref="H115:J115"/>
-    <mergeCell ref="K115:M115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="D116:G116"/>
-    <mergeCell ref="H116:J116"/>
-    <mergeCell ref="K116:M116"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="D121:G121"/>
-    <mergeCell ref="H121:J121"/>
-    <mergeCell ref="K121:M121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="D122:G122"/>
-    <mergeCell ref="H122:J122"/>
-    <mergeCell ref="K122:M122"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="D119:G119"/>
-    <mergeCell ref="H119:J119"/>
-    <mergeCell ref="K119:M119"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="D120:G120"/>
-    <mergeCell ref="H120:J120"/>
-    <mergeCell ref="K120:M120"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="D123:G123"/>
-    <mergeCell ref="H123:J123"/>
-    <mergeCell ref="K123:M123"/>
-    <mergeCell ref="A124:A134"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="D124:G124"/>
-    <mergeCell ref="H124:J124"/>
-    <mergeCell ref="K124:M124"/>
-    <mergeCell ref="K128:M128"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="D129:G129"/>
-    <mergeCell ref="H129:J129"/>
-    <mergeCell ref="K129:M129"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="D130:G130"/>
-    <mergeCell ref="A104:A123"/>
-    <mergeCell ref="K109:M109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="D110:G110"/>
-    <mergeCell ref="H110:J110"/>
-    <mergeCell ref="K110:M110"/>
-    <mergeCell ref="H130:J130"/>
-    <mergeCell ref="K130:M130"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="D131:G131"/>
-    <mergeCell ref="H131:J131"/>
-    <mergeCell ref="K131:M131"/>
-    <mergeCell ref="N124:O134"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="D125:G125"/>
-    <mergeCell ref="H125:J125"/>
-    <mergeCell ref="K125:M125"/>
-    <mergeCell ref="B126:C126"/>
-    <mergeCell ref="D126:G126"/>
-    <mergeCell ref="H126:J126"/>
-    <mergeCell ref="K126:M126"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="D127:G127"/>
-    <mergeCell ref="H127:J127"/>
-    <mergeCell ref="K127:M127"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="D128:G128"/>
-    <mergeCell ref="H128:J128"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="D134:G134"/>
-    <mergeCell ref="H134:J134"/>
-    <mergeCell ref="K134:M134"/>
-    <mergeCell ref="B135:C135"/>
-    <mergeCell ref="D135:G135"/>
-    <mergeCell ref="H135:J135"/>
-    <mergeCell ref="K135:M135"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="D132:G132"/>
-    <mergeCell ref="H132:J132"/>
-    <mergeCell ref="K132:M132"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="D133:G133"/>
-    <mergeCell ref="H133:J133"/>
-    <mergeCell ref="K133:M133"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="D137:G137"/>
-    <mergeCell ref="H137:J137"/>
-    <mergeCell ref="K137:M137"/>
-    <mergeCell ref="N137:O137"/>
-    <mergeCell ref="N135:O135"/>
-    <mergeCell ref="B136:C136"/>
-    <mergeCell ref="D136:G136"/>
-    <mergeCell ref="H136:J136"/>
-    <mergeCell ref="K136:M136"/>
-    <mergeCell ref="N136:O136"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="D139:G139"/>
-    <mergeCell ref="H139:J139"/>
-    <mergeCell ref="K139:M139"/>
-    <mergeCell ref="N139:O139"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="D138:G138"/>
-    <mergeCell ref="H138:J138"/>
-    <mergeCell ref="K138:M138"/>
-    <mergeCell ref="N138:O138"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="D141:G141"/>
-    <mergeCell ref="H141:J141"/>
-    <mergeCell ref="K141:M141"/>
-    <mergeCell ref="N141:O141"/>
-    <mergeCell ref="B140:C140"/>
-    <mergeCell ref="D140:G140"/>
-    <mergeCell ref="H140:J140"/>
-    <mergeCell ref="K140:M140"/>
-    <mergeCell ref="N140:O140"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="D143:G143"/>
-    <mergeCell ref="H143:J143"/>
-    <mergeCell ref="K143:M143"/>
-    <mergeCell ref="N143:O143"/>
-    <mergeCell ref="B142:C142"/>
-    <mergeCell ref="D142:G142"/>
-    <mergeCell ref="H142:J142"/>
-    <mergeCell ref="K142:M142"/>
-    <mergeCell ref="N142:O142"/>
-    <mergeCell ref="A144:A161"/>
-    <mergeCell ref="B144:C144"/>
-    <mergeCell ref="D144:G144"/>
-    <mergeCell ref="H144:J161"/>
-    <mergeCell ref="K144:M144"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="D150:G150"/>
-    <mergeCell ref="K150:M150"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="D151:G151"/>
-    <mergeCell ref="K151:M151"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="D152:G152"/>
-    <mergeCell ref="K152:M152"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="D153:G153"/>
-    <mergeCell ref="N144:O161"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="D145:G145"/>
-    <mergeCell ref="K145:M145"/>
-    <mergeCell ref="B146:C146"/>
-    <mergeCell ref="D146:G146"/>
-    <mergeCell ref="K146:M146"/>
-    <mergeCell ref="B147:C147"/>
-    <mergeCell ref="D147:G147"/>
-    <mergeCell ref="K147:M147"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="D148:G148"/>
-    <mergeCell ref="K148:M148"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="D149:G149"/>
-    <mergeCell ref="K149:M149"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="D156:G156"/>
-    <mergeCell ref="K156:M156"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="D157:G157"/>
-    <mergeCell ref="K157:M157"/>
-    <mergeCell ref="K153:M153"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="D154:G154"/>
-    <mergeCell ref="K154:M154"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="D155:G155"/>
-    <mergeCell ref="K155:M155"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="D160:G160"/>
-    <mergeCell ref="K160:M160"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="D161:G161"/>
-    <mergeCell ref="K161:M161"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="D158:G158"/>
-    <mergeCell ref="K158:M158"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="D159:G159"/>
-    <mergeCell ref="K159:M159"/>
-    <mergeCell ref="A162:G162"/>
-    <mergeCell ref="H162:P163"/>
-    <mergeCell ref="A163:G163"/>
-    <mergeCell ref="A164:P164"/>
-    <mergeCell ref="A165:A166"/>
-    <mergeCell ref="C165:I166"/>
-    <mergeCell ref="J165:K166"/>
-    <mergeCell ref="L165:M165"/>
-    <mergeCell ref="N165:O166"/>
-    <mergeCell ref="L166:M166"/>
-    <mergeCell ref="N167:O169"/>
-    <mergeCell ref="C168:I168"/>
-    <mergeCell ref="J168:K168"/>
-    <mergeCell ref="L168:M168"/>
-    <mergeCell ref="C169:I169"/>
-    <mergeCell ref="J169:K169"/>
-    <mergeCell ref="L169:M169"/>
-    <mergeCell ref="A167:A169"/>
-    <mergeCell ref="B167:B169"/>
-    <mergeCell ref="C167:I167"/>
-    <mergeCell ref="J167:K167"/>
-    <mergeCell ref="L167:M167"/>
-    <mergeCell ref="A170:A176"/>
-    <mergeCell ref="C170:I176"/>
-    <mergeCell ref="J170:K170"/>
-    <mergeCell ref="L170:M170"/>
-    <mergeCell ref="N170:O176"/>
-    <mergeCell ref="J171:K171"/>
-    <mergeCell ref="L171:M171"/>
-    <mergeCell ref="J172:K172"/>
-    <mergeCell ref="L172:M172"/>
-    <mergeCell ref="J173:K173"/>
-    <mergeCell ref="L173:M173"/>
-    <mergeCell ref="J174:K174"/>
-    <mergeCell ref="L174:M174"/>
-    <mergeCell ref="J175:K175"/>
-    <mergeCell ref="L175:M175"/>
-    <mergeCell ref="J176:K176"/>
-    <mergeCell ref="L183:M183"/>
-    <mergeCell ref="A184:P184"/>
-    <mergeCell ref="A185:A186"/>
-    <mergeCell ref="C185:I186"/>
-    <mergeCell ref="J185:K186"/>
-    <mergeCell ref="L185:M185"/>
-    <mergeCell ref="N185:O186"/>
-    <mergeCell ref="L186:M186"/>
-    <mergeCell ref="L176:M176"/>
-    <mergeCell ref="A177:P177"/>
-    <mergeCell ref="A178:A183"/>
-    <mergeCell ref="C178:I178"/>
-    <mergeCell ref="J178:K183"/>
-    <mergeCell ref="L178:M178"/>
-    <mergeCell ref="N178:O183"/>
-    <mergeCell ref="C179:I179"/>
-    <mergeCell ref="L179:M179"/>
-    <mergeCell ref="C180:I180"/>
-    <mergeCell ref="L180:M180"/>
-    <mergeCell ref="C181:I181"/>
-    <mergeCell ref="L181:M181"/>
-    <mergeCell ref="C182:I182"/>
-    <mergeCell ref="L182:M182"/>
-    <mergeCell ref="C183:I183"/>
-    <mergeCell ref="N187:O189"/>
-    <mergeCell ref="C188:I188"/>
-    <mergeCell ref="J188:K188"/>
-    <mergeCell ref="L188:M188"/>
-    <mergeCell ref="C189:I189"/>
-    <mergeCell ref="J189:K189"/>
-    <mergeCell ref="L189:M189"/>
-    <mergeCell ref="A187:A189"/>
-    <mergeCell ref="B187:B189"/>
-    <mergeCell ref="C187:I187"/>
-    <mergeCell ref="J187:K187"/>
-    <mergeCell ref="L187:M187"/>
-    <mergeCell ref="N190:O196"/>
-    <mergeCell ref="J191:K191"/>
-    <mergeCell ref="L191:M191"/>
-    <mergeCell ref="J192:K192"/>
-    <mergeCell ref="L192:M192"/>
-    <mergeCell ref="J193:K193"/>
-    <mergeCell ref="L193:M193"/>
-    <mergeCell ref="J194:K194"/>
-    <mergeCell ref="L194:M194"/>
-    <mergeCell ref="J195:K195"/>
-    <mergeCell ref="L195:M195"/>
-    <mergeCell ref="J196:K196"/>
-    <mergeCell ref="L196:M196"/>
-    <mergeCell ref="A197:A202"/>
-    <mergeCell ref="C197:I197"/>
-    <mergeCell ref="J197:K202"/>
-    <mergeCell ref="L197:M197"/>
-    <mergeCell ref="A190:A196"/>
-    <mergeCell ref="C190:I196"/>
-    <mergeCell ref="J190:K190"/>
-    <mergeCell ref="L190:M190"/>
-    <mergeCell ref="A203:P203"/>
-    <mergeCell ref="N197:O202"/>
-    <mergeCell ref="C198:I198"/>
-    <mergeCell ref="L198:M198"/>
-    <mergeCell ref="C199:I199"/>
-    <mergeCell ref="L199:M199"/>
-    <mergeCell ref="C200:I200"/>
-    <mergeCell ref="L200:M200"/>
-    <mergeCell ref="C201:I201"/>
-    <mergeCell ref="L201:M201"/>
-    <mergeCell ref="C202:I202"/>
-    <mergeCell ref="L202:M202"/>
+    <mergeCell ref="N16:O20"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N11:O15"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="N6:O10"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:Q2"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:Q3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:J5"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:O5"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="K5:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Testing Documentation (Test Scenario – Test Case – dll)/PRAKTIKUM.xlsx
+++ b/Testing Documentation (Test Scenario – Test Case – dll)/PRAKTIKUM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QE-MUH-FIQRAM-MAULANA\QE-MUH-FIQRAM-MAULANA\Testing Documentation (Test Scenario – Test Case – dll)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA7FFF8-C638-490B-95C9-8B43D69D750F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB428E93-7F95-456D-966B-DCE8A040EEED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2940" yWindow="2940" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
